--- a/數據資料/macroeconomic factors.xlsx
+++ b/數據資料/macroeconomic factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\macroeconomic factors\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FEFDB4-E890-44D2-ADCE-1928597AF728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A4CFF6-6EBF-43D1-B4BE-9866A209916C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="360" windowWidth="18816" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="756" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>observation_date</t>
-  </si>
-  <si>
     <t>IPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +57,10 @@
   </si>
   <si>
     <t>CLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,384 +392,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:R229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>38808</v>
       </c>
-      <c r="B2" s="1">
-        <v>98.682599999999994</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1205627</v>
+      <c r="B2">
+        <v>2.9606276164660145E-3</v>
+      </c>
+      <c r="C2">
+        <v>-9.4492937472476189E-3</v>
       </c>
       <c r="D2" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>303600</v>
-      </c>
-      <c r="F2" s="1">
-        <v>200.7</v>
+        <v>299600</v>
+      </c>
+      <c r="F2">
+        <v>5.0075112669003509E-3</v>
       </c>
       <c r="G2">
         <v>101.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>38838</v>
       </c>
-      <c r="B3" s="1">
-        <v>98.707400000000007</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1215535</v>
+      <c r="B3">
+        <v>2.5131076805853575E-4</v>
+      </c>
+      <c r="C3">
+        <v>8.2181304831427954E-3</v>
       </c>
       <c r="D3" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>332750</v>
-      </c>
-      <c r="F3" s="1">
-        <v>201.3</v>
+        <v>306750</v>
+      </c>
+      <c r="F3">
+        <v>2.9895366218237306E-3</v>
       </c>
       <c r="G3">
         <v>101.26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>38869</v>
       </c>
-      <c r="B4" s="1">
-        <v>99.0398</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1212189</v>
+      <c r="B4">
+        <v>3.3675286756615279E-3</v>
+      </c>
+      <c r="C4">
+        <v>-2.7526973719391051E-3</v>
       </c>
       <c r="D4" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>305500</v>
-      </c>
-      <c r="F4" s="1">
-        <v>201.8</v>
+        <v>332750</v>
+      </c>
+      <c r="F4">
+        <v>2.4838549428713363E-3</v>
       </c>
       <c r="G4">
         <v>101.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>38899</v>
       </c>
-      <c r="B5" s="1">
-        <v>98.975099999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1206927</v>
+      <c r="B5">
+        <v>-6.5327272470261431E-4</v>
+      </c>
+      <c r="C5">
+        <v>-4.3409072347628955E-3</v>
       </c>
       <c r="D5" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>318800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>202.9</v>
+        <v>307600</v>
+      </c>
+      <c r="F5">
+        <v>5.4509415262635986E-3</v>
       </c>
       <c r="G5">
         <v>101.17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>38930</v>
       </c>
-      <c r="B6" s="1">
-        <v>99.404700000000005</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1213695</v>
+      <c r="B6">
+        <v>4.3404856372967317E-3</v>
+      </c>
+      <c r="C6">
+        <v>5.6076299560785369E-3</v>
       </c>
       <c r="D6" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>314250</v>
-      </c>
-      <c r="F6" s="1">
-        <v>203.8</v>
+        <v>319500</v>
+      </c>
+      <c r="F6">
+        <v>4.4356826022671544E-3</v>
       </c>
       <c r="G6">
         <v>101.18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>38961</v>
       </c>
-      <c r="B7" s="1">
-        <v>99.224599999999995</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1213475</v>
+      <c r="B7">
+        <v>-1.8117855594354203E-3</v>
+      </c>
+      <c r="C7">
+        <v>-1.8126465050939488E-4</v>
       </c>
       <c r="D7" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>316200</v>
-      </c>
-      <c r="F7" s="1">
-        <v>202.8</v>
+        <v>314250</v>
+      </c>
+      <c r="F7">
+        <v>-4.9067713444553478E-3</v>
       </c>
       <c r="G7">
         <v>101.24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>38991</v>
       </c>
-      <c r="B8" s="1">
-        <v>99.122900000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1214355</v>
+      <c r="B8">
+        <v>-1.0249474424688426E-3</v>
+      </c>
+      <c r="C8">
+        <v>7.2519005335915446E-4</v>
       </c>
       <c r="D8" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>315500</v>
-      </c>
-      <c r="F8" s="1">
-        <v>201.9</v>
+        <v>316200</v>
+      </c>
+      <c r="F8">
+        <v>-4.437869822485235E-3</v>
       </c>
       <c r="G8">
         <v>101.34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>39022</v>
       </c>
-      <c r="B9" s="1">
-        <v>99.096299999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1215059</v>
+      <c r="B9">
+        <v>-2.6835373057085651E-4</v>
+      </c>
+      <c r="C9">
+        <v>5.797316270777491E-4</v>
       </c>
       <c r="D9" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>326250</v>
-      </c>
-      <c r="F9" s="1">
-        <v>202</v>
+        <v>315500</v>
+      </c>
+      <c r="F9">
+        <v>4.9529470034667808E-4</v>
       </c>
       <c r="G9">
         <v>101.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>39052</v>
       </c>
-      <c r="B10" s="1">
-        <v>100.1125</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1234494</v>
+      <c r="B10">
+        <v>1.0254671466038569E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.599510805648121E-2</v>
       </c>
       <c r="D10" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>324000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>203.1</v>
+        <v>326250</v>
+      </c>
+      <c r="F10">
+        <v>5.4455445544554174E-3</v>
       </c>
       <c r="G10">
         <v>101.58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>39083</v>
       </c>
-      <c r="B11" s="1">
-        <v>99.754599999999996</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1226965</v>
+      <c r="B11">
+        <v>-3.5749781495817284E-3</v>
+      </c>
+      <c r="C11">
+        <v>-6.0988550774649366E-3</v>
       </c>
       <c r="D11" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>317250</v>
-      </c>
-      <c r="F11" s="1">
-        <v>203.43700000000001</v>
+        <v>324000</v>
+      </c>
+      <c r="F11">
+        <v>1.6592811422945224E-3</v>
       </c>
       <c r="G11">
         <v>101.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>39114</v>
       </c>
-      <c r="B12" s="1">
-        <v>100.7166</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1234327</v>
+      <c r="B12">
+        <v>9.6436655552726725E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.0001711540263987E-3</v>
       </c>
       <c r="D12" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>322750</v>
-      </c>
-      <c r="F12" s="1">
-        <v>204.226</v>
+        <v>317250</v>
+      </c>
+      <c r="F12">
+        <v>3.8783505458691745E-3</v>
       </c>
       <c r="G12">
         <v>101.81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>39142</v>
       </c>
-      <c r="B13" s="1">
-        <v>100.8952</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1235875</v>
+      <c r="B13">
+        <v>1.7732925853335298E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.2541247173560976E-3</v>
       </c>
       <c r="D13" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>309400</v>
-      </c>
-      <c r="F13" s="1">
-        <v>205.28800000000001</v>
+        <v>322750</v>
+      </c>
+      <c r="F13">
+        <v>5.2001214340975776E-3</v>
       </c>
       <c r="G13">
         <v>101.94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>39173</v>
       </c>
-      <c r="B14" s="1">
-        <v>101.5723</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1233744</v>
+      <c r="B14">
+        <v>6.7109238100523695E-3</v>
+      </c>
+      <c r="C14">
+        <v>-1.724284413876808E-3</v>
       </c>
       <c r="D14" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>320250</v>
-      </c>
-      <c r="F14" s="1">
-        <v>205.904</v>
+        <v>309400</v>
+      </c>
+      <c r="F14">
+        <v>3.0006624839249512E-3</v>
       </c>
       <c r="G14">
         <v>102.05</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>39203</v>
       </c>
-      <c r="B15" s="1">
-        <v>101.62690000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1242000</v>
+      <c r="B15">
+        <v>5.3754813074044549E-4</v>
+      </c>
+      <c r="C15">
+        <v>6.6918258569038632E-3</v>
       </c>
       <c r="D15" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>304250</v>
-      </c>
-      <c r="F15" s="1">
-        <v>206.755</v>
+        <v>320250</v>
+      </c>
+      <c r="F15">
+        <v>4.1329940166291044E-3</v>
       </c>
       <c r="G15">
         <v>102.14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>39234</v>
       </c>
-      <c r="B16" s="1">
-        <v>101.65470000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1240587</v>
+      <c r="B16">
+        <v>2.7354962121248563E-4</v>
+      </c>
+      <c r="C16">
+        <v>-1.1376811594202899E-3</v>
       </c>
       <c r="D16" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>315200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>207.23400000000001</v>
+        <v>304250</v>
+      </c>
+      <c r="F16">
+        <v>2.3167517109623148E-3</v>
       </c>
       <c r="G16">
         <v>102.19</v>
@@ -778,20 +798,20 @@
       <c r="A17" s="2">
         <v>39264</v>
       </c>
-      <c r="B17" s="1">
-        <v>101.4953</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1233195</v>
+      <c r="B17">
+        <v>-1.5680534200583453E-3</v>
+      </c>
+      <c r="C17">
+        <v>-5.9584696599271148E-3</v>
       </c>
       <c r="D17" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>313250</v>
-      </c>
-      <c r="F17" s="1">
-        <v>207.60300000000001</v>
+        <v>315200</v>
+      </c>
+      <c r="F17">
+        <v>1.7805958481716309E-3</v>
       </c>
       <c r="G17">
         <v>102.17</v>
@@ -801,20 +821,20 @@
       <c r="A18" s="2">
         <v>39295</v>
       </c>
-      <c r="B18" s="1">
-        <v>101.6943</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1248674</v>
+      <c r="B18">
+        <v>1.9606819232023363E-3</v>
+      </c>
+      <c r="C18">
+        <v>1.2551948394211783E-2</v>
       </c>
       <c r="D18" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>320000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>207.667</v>
+        <v>313250</v>
+      </c>
+      <c r="F18">
+        <v>3.0828070885292094E-4</v>
       </c>
       <c r="G18">
         <v>102.1</v>
@@ -824,20 +844,20 @@
       <c r="A19" s="2">
         <v>39326</v>
       </c>
-      <c r="B19" s="1">
-        <v>101.94280000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1249279</v>
+      <c r="B19">
+        <v>2.4435981171020112E-3</v>
+      </c>
+      <c r="C19">
+        <v>4.8451397242194521E-4</v>
       </c>
       <c r="D19" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>313400</v>
-      </c>
-      <c r="F19" s="1">
-        <v>208.547</v>
+        <v>318800</v>
+      </c>
+      <c r="F19">
+        <v>4.2375533907650009E-3</v>
       </c>
       <c r="G19">
         <v>101.99</v>
@@ -847,20 +867,20 @@
       <c r="A20" s="2">
         <v>39356</v>
       </c>
-      <c r="B20" s="1">
-        <v>101.6446</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1255916</v>
+      <c r="B20">
+        <v>-2.9251698011042316E-3</v>
+      </c>
+      <c r="C20">
+        <v>5.3126643447940769E-3</v>
       </c>
       <c r="D20" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>328250</v>
-      </c>
-      <c r="F20" s="1">
-        <v>209.19</v>
+        <v>313250</v>
+      </c>
+      <c r="F20">
+        <v>3.0832378312802425E-3</v>
       </c>
       <c r="G20">
         <v>101.87</v>
@@ -870,20 +890,20 @@
       <c r="A21" s="2">
         <v>39387</v>
       </c>
-      <c r="B21" s="1">
-        <v>102.2167</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1252867</v>
+      <c r="B21">
+        <v>5.6284347619057588E-3</v>
+      </c>
+      <c r="C21">
+        <v>-2.4277101334802646E-3</v>
       </c>
       <c r="D21" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>336000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>210.834</v>
+        <v>328250</v>
+      </c>
+      <c r="F21">
+        <v>7.8588842678904616E-3</v>
       </c>
       <c r="G21">
         <v>101.74</v>
@@ -893,20 +913,20 @@
       <c r="A22" s="2">
         <v>39417</v>
       </c>
-      <c r="B22" s="1">
-        <v>102.2764</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1242662</v>
+      <c r="B22">
+        <v>5.8405329070486834E-4</v>
+      </c>
+      <c r="C22">
+        <v>-8.1453178988671587E-3</v>
       </c>
       <c r="D22" s="1">
         <v>0.05</v>
       </c>
       <c r="E22" s="1">
-        <v>348200</v>
-      </c>
-      <c r="F22" s="1">
-        <v>211.44499999999999</v>
+        <v>337600</v>
+      </c>
+      <c r="F22">
+        <v>2.8980145517325953E-3</v>
       </c>
       <c r="G22">
         <v>101.62</v>
@@ -916,20 +936,20 @@
       <c r="A23" s="2">
         <v>39448</v>
       </c>
-      <c r="B23" s="1">
-        <v>102.1493</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1248910</v>
+      <c r="B23">
+        <v>-1.2427109284253129E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.0279158773664919E-3</v>
       </c>
       <c r="D23" s="1">
         <v>0.05</v>
       </c>
       <c r="E23" s="1">
-        <v>338750</v>
-      </c>
-      <c r="F23" s="1">
-        <v>212.17400000000001</v>
+        <v>349250</v>
+      </c>
+      <c r="F23">
+        <v>3.4477050769704341E-3</v>
       </c>
       <c r="G23">
         <v>101.49</v>
@@ -939,20 +959,20 @@
       <c r="A24" s="2">
         <v>39479</v>
       </c>
-      <c r="B24" s="1">
-        <v>101.7756</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1236974</v>
+      <c r="B24">
+        <v>-3.6583706398379576E-3</v>
+      </c>
+      <c r="C24">
+        <v>-9.5571338206916438E-3</v>
       </c>
       <c r="D24" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>346750</v>
-      </c>
-      <c r="F24" s="1">
-        <v>212.68700000000001</v>
+        <v>338750</v>
+      </c>
+      <c r="F24">
+        <v>2.4178268779398286E-3</v>
       </c>
       <c r="G24">
         <v>101.34</v>
@@ -962,20 +982,20 @@
       <c r="A25" s="2">
         <v>39508</v>
       </c>
-      <c r="B25" s="1">
-        <v>101.4508</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1220580</v>
+      <c r="B25">
+        <v>-3.1913346617460001E-3</v>
+      </c>
+      <c r="C25">
+        <v>-1.325331009382574E-2</v>
       </c>
       <c r="D25" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>363400</v>
-      </c>
-      <c r="F25" s="1">
-        <v>213.44800000000001</v>
+        <v>346400</v>
+      </c>
+      <c r="F25">
+        <v>3.5780278061188302E-3</v>
       </c>
       <c r="G25">
         <v>101.18</v>
@@ -985,20 +1005,20 @@
       <c r="A26" s="2">
         <v>39539</v>
       </c>
-      <c r="B26" s="1">
-        <v>100.75539999999999</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1233018</v>
+      <c r="B26">
+        <v>-6.8545541287008726E-3</v>
+      </c>
+      <c r="C26">
+        <v>1.0190237428107948E-2</v>
       </c>
       <c r="D26" s="1">
         <v>0.05</v>
       </c>
       <c r="E26" s="1">
-        <v>359500</v>
-      </c>
-      <c r="F26" s="1">
-        <v>213.94200000000001</v>
+        <v>368000</v>
+      </c>
+      <c r="F26">
+        <v>2.3143810202016406E-3</v>
       </c>
       <c r="G26">
         <v>100.98</v>
@@ -1008,20 +1028,20 @@
       <c r="A27" s="2">
         <v>39569</v>
       </c>
-      <c r="B27" s="1">
-        <v>100.1336</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1224494</v>
+      <c r="B27">
+        <v>-6.1713813850175102E-3</v>
+      </c>
+      <c r="C27">
+        <v>-6.9131188676888741E-3</v>
       </c>
       <c r="D27" s="1">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>366800</v>
-      </c>
-      <c r="F27" s="1">
-        <v>215.208</v>
+        <v>359500</v>
+      </c>
+      <c r="F27">
+        <v>5.9174916566171725E-3</v>
       </c>
       <c r="G27">
         <v>100.7</v>
@@ -1031,20 +1051,20 @@
       <c r="A28" s="2">
         <v>39600</v>
       </c>
-      <c r="B28" s="1">
-        <v>99.872799999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1222857</v>
+      <c r="B28">
+        <v>-2.6045203607980064E-3</v>
+      </c>
+      <c r="C28">
+        <v>-1.3368787433829812E-3</v>
       </c>
       <c r="D28" s="1">
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>383250</v>
-      </c>
-      <c r="F28" s="1">
-        <v>217.46299999999999</v>
+        <v>366800</v>
+      </c>
+      <c r="F28">
+        <v>1.0478235009850914E-2</v>
       </c>
       <c r="G28">
         <v>100.31</v>
@@ -1054,20 +1074,20 @@
       <c r="A29" s="2">
         <v>39630</v>
       </c>
-      <c r="B29" s="1">
-        <v>99.419399999999996</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1201769</v>
+      <c r="B29">
+        <v>-4.5397745932826755E-3</v>
+      </c>
+      <c r="C29">
+        <v>-1.7244861827670776E-2</v>
       </c>
       <c r="D29" s="1">
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>398000</v>
-      </c>
-      <c r="F29" s="1">
-        <v>219.01599999999999</v>
+        <v>383250</v>
+      </c>
+      <c r="F29">
+        <v>7.141444751520936E-3</v>
       </c>
       <c r="G29">
         <v>99.77</v>
@@ -1077,20 +1097,20 @@
       <c r="A30" s="2">
         <v>39661</v>
       </c>
-      <c r="B30" s="1">
-        <v>97.849100000000007</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1192943</v>
+      <c r="B30">
+        <v>-1.5794704051724201E-2</v>
+      </c>
+      <c r="C30">
+        <v>-7.3441734642847338E-3</v>
       </c>
       <c r="D30" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>433000</v>
-      </c>
-      <c r="F30" s="1">
-        <v>218.69</v>
+        <v>398000</v>
+      </c>
+      <c r="F30">
+        <v>-1.4884757278006786E-3</v>
       </c>
       <c r="G30">
         <v>99.07</v>
@@ -1100,20 +1120,20 @@
       <c r="A31" s="2">
         <v>39692</v>
       </c>
-      <c r="B31" s="1">
-        <v>93.557599999999994</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1163601</v>
+      <c r="B31">
+        <v>-4.3858349233667077E-2</v>
+      </c>
+      <c r="C31">
+        <v>-2.4596313486897531E-2</v>
       </c>
       <c r="D31" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>464000</v>
-      </c>
-      <c r="F31" s="1">
-        <v>218.87700000000001</v>
+        <v>433000</v>
+      </c>
+      <c r="F31">
+        <v>8.5509168229005365E-4</v>
       </c>
       <c r="G31">
         <v>98.22</v>
@@ -1123,20 +1143,20 @@
       <c r="A32" s="2">
         <v>39722</v>
       </c>
-      <c r="B32" s="1">
-        <v>94.498500000000007</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1152758</v>
+      <c r="B32">
+        <v>1.0056906119866408E-2</v>
+      </c>
+      <c r="C32">
+        <v>-9.3184863196233078E-3</v>
       </c>
       <c r="D32" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>475250</v>
-      </c>
-      <c r="F32" s="1">
-        <v>216.995</v>
+        <v>464000</v>
+      </c>
+      <c r="F32">
+        <v>-8.5984365648286709E-3</v>
       </c>
       <c r="G32">
         <v>97.29</v>
@@ -1146,20 +1166,20 @@
       <c r="A33" s="2">
         <v>39753</v>
       </c>
-      <c r="B33" s="1">
-        <v>93.261700000000005</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1121305</v>
+      <c r="B33">
+        <v>-1.3088038434472529E-2</v>
+      </c>
+      <c r="C33">
+        <v>-2.7284998239005931E-2</v>
       </c>
       <c r="D33" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>519800</v>
-      </c>
-      <c r="F33" s="1">
-        <v>213.15299999999999</v>
+        <v>478200</v>
+      </c>
+      <c r="F33">
+        <v>-1.7705477084725516E-2</v>
       </c>
       <c r="G33">
         <v>96.4</v>
@@ -1169,20 +1189,20 @@
       <c r="A34" s="2">
         <v>39783</v>
       </c>
-      <c r="B34" s="1">
-        <v>90.626599999999996</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1115214</v>
+      <c r="B34">
+        <v>-2.8254899921404054E-2</v>
+      </c>
+      <c r="C34">
+        <v>-5.4320635331154329E-3</v>
       </c>
       <c r="D34" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>564000</v>
-      </c>
-      <c r="F34" s="1">
-        <v>211.398</v>
+        <v>527250</v>
+      </c>
+      <c r="F34">
+        <v>-8.2335223994032241E-3</v>
       </c>
       <c r="G34">
         <v>95.65</v>
@@ -1192,20 +1212,20 @@
       <c r="A35" s="2">
         <v>39814</v>
       </c>
-      <c r="B35" s="1">
-        <v>88.371200000000002</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1091570</v>
+      <c r="B35">
+        <v>-2.4886733034230508E-2</v>
+      </c>
+      <c r="C35">
+        <v>-2.1201312035178898E-2</v>
       </c>
       <c r="D35" s="1">
         <v>7.8E-2</v>
       </c>
       <c r="E35" s="1">
-        <v>572000</v>
-      </c>
-      <c r="F35" s="1">
-        <v>211.93299999999999</v>
+        <v>564000</v>
+      </c>
+      <c r="F35">
+        <v>2.5307713412614907E-3</v>
       </c>
       <c r="G35">
         <v>95.1</v>
@@ -1215,20 +1235,20 @@
       <c r="A36" s="2">
         <v>39845</v>
       </c>
-      <c r="B36" s="1">
-        <v>87.843000000000004</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1098345</v>
+      <c r="B36">
+        <v>-5.97706039976823E-3</v>
+      </c>
+      <c r="C36">
+        <v>6.206656467290233E-3</v>
       </c>
       <c r="D36" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>644000</v>
-      </c>
-      <c r="F36" s="1">
-        <v>212.70500000000001</v>
+        <v>572000</v>
+      </c>
+      <c r="F36">
+        <v>3.6426606521873413E-3</v>
       </c>
       <c r="G36">
         <v>94.8</v>
@@ -1238,20 +1258,20 @@
       <c r="A37" s="2">
         <v>39873</v>
       </c>
-      <c r="B37" s="1">
-        <v>86.468900000000005</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1075682</v>
+      <c r="B37">
+        <v>-1.5642680691688563E-2</v>
+      </c>
+      <c r="C37">
+        <v>-2.0633771720178995E-2</v>
       </c>
       <c r="D37" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="E37" s="1">
-        <v>659250</v>
-      </c>
-      <c r="F37" s="1">
-        <v>212.495</v>
+        <v>644000</v>
+      </c>
+      <c r="F37">
+        <v>-9.8728285653843558E-4</v>
       </c>
       <c r="G37">
         <v>94.76</v>
@@ -1261,20 +1281,20 @@
       <c r="A38" s="2">
         <v>39904</v>
       </c>
-      <c r="B38" s="1">
-        <v>85.790300000000002</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1067305</v>
+      <c r="B38">
+        <v>-7.8479083231081104E-3</v>
+      </c>
+      <c r="C38">
+        <v>-7.7876175300878887E-3</v>
       </c>
       <c r="D38" s="1">
         <v>0.09</v>
       </c>
       <c r="E38" s="1">
-        <v>627750</v>
-      </c>
-      <c r="F38" s="1">
-        <v>212.709</v>
+        <v>659250</v>
+      </c>
+      <c r="F38">
+        <v>1.0070825195886899E-3</v>
       </c>
       <c r="G38">
         <v>94.96</v>
@@ -1284,20 +1304,20 @@
       <c r="A39" s="2">
         <v>39934</v>
       </c>
-      <c r="B39" s="1">
-        <v>84.943600000000004</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1067765</v>
+      <c r="B39">
+        <v>-9.8694141412257377E-3</v>
+      </c>
+      <c r="C39">
+        <v>4.309920781782152E-4</v>
       </c>
       <c r="D39" s="1">
         <v>9.4E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>612000</v>
-      </c>
-      <c r="F39" s="1">
-        <v>213.02199999999999</v>
+        <v>627750</v>
+      </c>
+      <c r="F39">
+        <v>1.4714939189220397E-3</v>
       </c>
       <c r="G39">
         <v>95.35</v>
@@ -1307,20 +1327,20 @@
       <c r="A40" s="2">
         <v>39965</v>
       </c>
-      <c r="B40" s="1">
-        <v>84.674599999999998</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1066077</v>
+      <c r="B40">
+        <v>-3.1668071520397703E-3</v>
+      </c>
+      <c r="C40">
+        <v>-1.5808721956610302E-3</v>
       </c>
       <c r="D40" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E40" s="1">
-        <v>598250</v>
-      </c>
-      <c r="F40" s="1">
-        <v>214.79</v>
+        <v>612000</v>
+      </c>
+      <c r="F40">
+        <v>8.2996122466224183E-3</v>
       </c>
       <c r="G40">
         <v>95.85</v>
@@ -1330,20 +1350,20 @@
       <c r="A41" s="2">
         <v>39995</v>
       </c>
-      <c r="B41" s="1">
-        <v>85.685299999999998</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1081824</v>
+      <c r="B41">
+        <v>1.1936283135674687E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.4770978081320579E-2</v>
       </c>
       <c r="D41" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E41" s="1">
-        <v>566500</v>
-      </c>
-      <c r="F41" s="1">
-        <v>214.726</v>
+        <v>598250</v>
+      </c>
+      <c r="F41">
+        <v>-2.9796545463007103E-4</v>
       </c>
       <c r="G41">
         <v>96.4</v>
@@ -1353,20 +1373,20 @@
       <c r="A42" s="2">
         <v>40026</v>
       </c>
-      <c r="B42" s="1">
-        <v>86.639300000000006</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1082444</v>
+      <c r="B42">
+        <v>1.113376506822066E-2</v>
+      </c>
+      <c r="C42">
+        <v>5.7310616144585439E-4</v>
       </c>
       <c r="D42" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E42" s="1">
-        <v>559200</v>
-      </c>
-      <c r="F42" s="1">
-        <v>215.44499999999999</v>
+        <v>564200</v>
+      </c>
+      <c r="F42">
+        <v>3.3484533777930667E-3</v>
       </c>
       <c r="G42">
         <v>96.95</v>
@@ -1376,20 +1396,20 @@
       <c r="A43" s="2">
         <v>40057</v>
       </c>
-      <c r="B43" s="1">
-        <v>87.382099999999994</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1083725</v>
+      <c r="B43">
+        <v>8.5734764708393103E-3</v>
+      </c>
+      <c r="C43">
+        <v>1.1834330459589595E-3</v>
       </c>
       <c r="D43" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E43" s="1">
-        <v>547500</v>
-      </c>
-      <c r="F43" s="1">
-        <v>215.86099999999999</v>
+        <v>560250</v>
+      </c>
+      <c r="F43">
+        <v>1.9308872334006212E-3</v>
       </c>
       <c r="G43">
         <v>97.48</v>
@@ -1399,20 +1419,20 @@
       <c r="A44" s="2">
         <v>40087</v>
       </c>
-      <c r="B44" s="1">
-        <v>87.5809</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1089060</v>
+      <c r="B44">
+        <v>2.2750654882407913E-3</v>
+      </c>
+      <c r="C44">
+        <v>4.9228355902096932E-3</v>
       </c>
       <c r="D44" s="1">
         <v>0.1</v>
       </c>
       <c r="E44" s="1">
-        <v>525400</v>
-      </c>
-      <c r="F44" s="1">
-        <v>216.50899999999999</v>
+        <v>547500</v>
+      </c>
+      <c r="F44">
+        <v>3.0019317987037778E-3</v>
       </c>
       <c r="G44">
         <v>97.97</v>
@@ -1422,20 +1442,20 @@
       <c r="A45" s="2">
         <v>40118</v>
       </c>
-      <c r="B45" s="1">
-        <v>87.938800000000001</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1097236</v>
+      <c r="B45">
+        <v>4.0865074462582687E-3</v>
+      </c>
+      <c r="C45">
+        <v>7.5073916955906931E-3</v>
       </c>
       <c r="D45" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E45" s="1">
-        <v>494000</v>
-      </c>
-      <c r="F45" s="1">
-        <v>217.23400000000001</v>
+        <v>525400</v>
+      </c>
+      <c r="F45">
+        <v>3.3485905897677362E-3</v>
       </c>
       <c r="G45">
         <v>98.42</v>
@@ -1445,20 +1465,20 @@
       <c r="A46" s="2">
         <v>40148</v>
       </c>
-      <c r="B46" s="1">
-        <v>88.240399999999994</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1100924</v>
+      <c r="B46">
+        <v>3.4296578984474818E-3</v>
+      </c>
+      <c r="C46">
+        <v>3.3611729837519002E-3</v>
       </c>
       <c r="D46" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E46" s="1">
-        <v>485500</v>
-      </c>
-      <c r="F46" s="1">
-        <v>217.34700000000001</v>
+        <v>494000</v>
+      </c>
+      <c r="F46">
+        <v>5.2017639964277939E-4</v>
       </c>
       <c r="G46">
         <v>98.83</v>
@@ -1468,20 +1488,20 @@
       <c r="A47" s="2">
         <v>40179</v>
       </c>
-      <c r="B47" s="1">
-        <v>89.189700000000002</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1097775</v>
+      <c r="B47">
+        <v>1.0758110797321953E-2</v>
+      </c>
+      <c r="C47">
+        <v>-2.8603246000632196E-3</v>
       </c>
       <c r="D47" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E47" s="1">
-        <v>479800</v>
-      </c>
-      <c r="F47" s="1">
-        <v>217.488</v>
+        <v>485500</v>
+      </c>
+      <c r="F47">
+        <v>6.4873221162468832E-4</v>
       </c>
       <c r="G47">
         <v>99.19</v>
@@ -1491,20 +1511,20 @@
       <c r="A48" s="2">
         <v>40210</v>
       </c>
-      <c r="B48" s="1">
-        <v>89.504599999999996</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1105025</v>
+      <c r="B48">
+        <v>3.5306767485482563E-3</v>
+      </c>
+      <c r="C48">
+        <v>6.6042677233495023E-3</v>
       </c>
       <c r="D48" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E48" s="1">
-        <v>485750</v>
-      </c>
-      <c r="F48" s="1">
-        <v>217.28100000000001</v>
+        <v>479800</v>
+      </c>
+      <c r="F48">
+        <v>-9.5177664974616365E-4</v>
       </c>
       <c r="G48">
         <v>99.45</v>
@@ -1514,20 +1534,20 @@
       <c r="A49" s="2">
         <v>40238</v>
       </c>
-      <c r="B49" s="1">
-        <v>90.135599999999997</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1119036</v>
+      <c r="B49">
+        <v>7.0499169875067906E-3</v>
+      </c>
+      <c r="C49">
+        <v>1.2679351145901676E-2</v>
       </c>
       <c r="D49" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E49" s="1">
-        <v>470250</v>
-      </c>
-      <c r="F49" s="1">
-        <v>217.35300000000001</v>
+        <v>485750</v>
+      </c>
+      <c r="F49">
+        <v>3.313681361923165E-4</v>
       </c>
       <c r="G49">
         <v>99.63</v>
@@ -1537,20 +1557,20 @@
       <c r="A50" s="2">
         <v>40269</v>
       </c>
-      <c r="B50" s="1">
-        <v>90.460700000000003</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1129045</v>
+      <c r="B50">
+        <v>3.6067879949765263E-3</v>
+      </c>
+      <c r="C50">
+        <v>8.9443056344925449E-3</v>
       </c>
       <c r="D50" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E50" s="1">
-        <v>469000</v>
-      </c>
-      <c r="F50" s="1">
-        <v>217.40299999999999</v>
+        <v>470250</v>
+      </c>
+      <c r="F50">
+        <v>2.3004053314186113E-4</v>
       </c>
       <c r="G50">
         <v>99.7</v>
@@ -1560,20 +1580,20 @@
       <c r="A51" s="2">
         <v>40299</v>
       </c>
-      <c r="B51" s="1">
-        <v>91.701400000000007</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1125510</v>
+      <c r="B51">
+        <v>1.3715348211986021E-2</v>
+      </c>
+      <c r="C51">
+        <v>-3.1309646648273542E-3</v>
       </c>
       <c r="D51" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E51" s="1">
-        <v>459400</v>
-      </c>
-      <c r="F51" s="1">
-        <v>217.29</v>
+        <v>465400</v>
+      </c>
+      <c r="F51">
+        <v>-5.197720362644469E-4</v>
       </c>
       <c r="G51">
         <v>99.68</v>
@@ -1583,20 +1603,20 @@
       <c r="A52" s="2">
         <v>40330</v>
       </c>
-      <c r="B52" s="1">
-        <v>91.903300000000002</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1136355</v>
+      <c r="B52">
+        <v>2.2017112061538304E-3</v>
+      </c>
+      <c r="C52">
+        <v>9.6356318468960745E-3</v>
       </c>
       <c r="D52" s="1">
         <v>9.4E-2</v>
       </c>
       <c r="E52" s="1">
-        <v>460500</v>
-      </c>
-      <c r="F52" s="1">
-        <v>217.19900000000001</v>
+        <v>461500</v>
+      </c>
+      <c r="F52">
+        <v>-4.1879515854378836E-4</v>
       </c>
       <c r="G52">
         <v>99.6</v>
@@ -1606,20 +1626,20 @@
       <c r="A53" s="2">
         <v>40360</v>
       </c>
-      <c r="B53" s="1">
-        <v>92.254900000000006</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1145984</v>
+      <c r="B53">
+        <v>3.8257603372240691E-3</v>
+      </c>
+      <c r="C53">
+        <v>8.4735843992414343E-3</v>
       </c>
       <c r="D53" s="1">
         <v>9.4E-2</v>
       </c>
       <c r="E53" s="1">
-        <v>459200</v>
-      </c>
-      <c r="F53" s="1">
-        <v>217.60499999999999</v>
+        <v>460500</v>
+      </c>
+      <c r="F53">
+        <v>1.8692535416828691E-3</v>
       </c>
       <c r="G53">
         <v>99.53</v>
@@ -1629,20 +1649,20 @@
       <c r="A54" s="2">
         <v>40391</v>
       </c>
-      <c r="B54" s="1">
-        <v>92.593599999999995</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1146566</v>
+      <c r="B54">
+        <v>3.6713497060859492E-3</v>
+      </c>
+      <c r="C54">
+        <v>5.0786049368926618E-4</v>
       </c>
       <c r="D54" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E54" s="1">
-        <v>475000</v>
-      </c>
-      <c r="F54" s="1">
-        <v>217.923</v>
+        <v>459200</v>
+      </c>
+      <c r="F54">
+        <v>1.4613634796995108E-3</v>
       </c>
       <c r="G54">
         <v>99.53</v>
@@ -1652,20 +1672,20 @@
       <c r="A55" s="2">
         <v>40422</v>
       </c>
-      <c r="B55" s="1">
-        <v>92.853300000000004</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1146388</v>
+      <c r="B55">
+        <v>2.8047294845433093E-3</v>
+      </c>
+      <c r="C55">
+        <v>-1.5524618731063017E-4</v>
       </c>
       <c r="D55" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E55" s="1">
-        <v>453500</v>
-      </c>
-      <c r="F55" s="1">
-        <v>218.27500000000001</v>
+        <v>475000</v>
+      </c>
+      <c r="F55">
+        <v>1.6152494229613389E-3</v>
       </c>
       <c r="G55">
         <v>99.6</v>
@@ -1675,20 +1695,20 @@
       <c r="A56" s="2">
         <v>40452</v>
       </c>
-      <c r="B56" s="1">
-        <v>92.603300000000004</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1152306</v>
+      <c r="B56">
+        <v>-2.6924191170373049E-3</v>
+      </c>
+      <c r="C56">
+        <v>5.1623010708416349E-3</v>
       </c>
       <c r="D56" s="1">
         <v>9.4E-2</v>
       </c>
       <c r="E56" s="1">
-        <v>446800</v>
-      </c>
-      <c r="F56" s="1">
-        <v>219.035</v>
+        <v>453500</v>
+      </c>
+      <c r="F56">
+        <v>3.4818462948115491E-3</v>
       </c>
       <c r="G56">
         <v>99.72</v>
@@ -1698,20 +1718,20 @@
       <c r="A57" s="2">
         <v>40483</v>
       </c>
-      <c r="B57" s="1">
-        <v>92.668599999999998</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1155595</v>
+      <c r="B57">
+        <v>7.0515845547613825E-4</v>
+      </c>
+      <c r="C57">
+        <v>2.8542765550122972E-3</v>
       </c>
       <c r="D57" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E57" s="1">
-        <v>426250</v>
-      </c>
-      <c r="F57" s="1">
-        <v>219.59</v>
+        <v>418800</v>
+      </c>
+      <c r="F57">
+        <v>2.5338416234848625E-3</v>
       </c>
       <c r="G57">
         <v>99.9</v>
@@ -1721,20 +1741,20 @@
       <c r="A58" s="2">
         <v>40513</v>
       </c>
-      <c r="B58" s="1">
-        <v>93.5916</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1157650</v>
+      <c r="B58">
+        <v>9.9602238514448459E-3</v>
+      </c>
+      <c r="C58">
+        <v>1.7783046828689982E-3</v>
       </c>
       <c r="D58" s="1">
         <v>9.3000000000000013E-2</v>
       </c>
       <c r="E58" s="1">
-        <v>420250</v>
-      </c>
-      <c r="F58" s="1">
-        <v>220.47200000000001</v>
+        <v>430250</v>
+      </c>
+      <c r="F58">
+        <v>4.0165763468282024E-3</v>
       </c>
       <c r="G58">
         <v>100.1</v>
@@ -1744,20 +1764,20 @@
       <c r="A59" s="2">
         <v>40544</v>
       </c>
-      <c r="B59" s="1">
-        <v>93.388900000000007</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1171839</v>
+      <c r="B59">
+        <v>-2.1657926566058601E-3</v>
+      </c>
+      <c r="C59">
+        <v>1.2256726990022891E-2</v>
       </c>
       <c r="D59" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="E59" s="1">
-        <v>426800</v>
-      </c>
-      <c r="F59" s="1">
-        <v>221.18700000000001</v>
+        <v>420250</v>
+      </c>
+      <c r="F59">
+        <v>3.2430422003701304E-3</v>
       </c>
       <c r="G59">
         <v>100.26</v>
@@ -1767,20 +1787,20 @@
       <c r="A60" s="2">
         <v>40575</v>
       </c>
-      <c r="B60" s="1">
-        <v>93.004499999999993</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1155055</v>
+      <c r="B60">
+        <v>-4.1161208666127729E-3</v>
+      </c>
+      <c r="C60">
+        <v>-1.4322786662672945E-2</v>
       </c>
       <c r="D60" s="1">
         <v>0.09</v>
       </c>
       <c r="E60" s="1">
-        <v>401500</v>
-      </c>
-      <c r="F60" s="1">
-        <v>221.898</v>
+        <v>426800</v>
+      </c>
+      <c r="F60">
+        <v>3.2144746300640827E-3</v>
       </c>
       <c r="G60">
         <v>100.36</v>
@@ -1790,20 +1810,20 @@
       <c r="A61" s="2">
         <v>40603</v>
       </c>
-      <c r="B61" s="1">
-        <v>93.968400000000003</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1168286</v>
+      <c r="B61">
+        <v>1.0364014644452791E-2</v>
+      </c>
+      <c r="C61">
+        <v>1.145486578561194E-2</v>
       </c>
       <c r="D61" s="1">
         <v>0.09</v>
       </c>
       <c r="E61" s="1">
-        <v>406000</v>
-      </c>
-      <c r="F61" s="1">
-        <v>223.04599999999999</v>
+        <v>401500</v>
+      </c>
+      <c r="F61">
+        <v>5.1735482068337533E-3</v>
       </c>
       <c r="G61">
         <v>100.36</v>
@@ -1813,20 +1833,20 @@
       <c r="A62" s="2">
         <v>40634</v>
       </c>
-      <c r="B62" s="1">
-        <v>93.6571</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1164024</v>
+      <c r="B62">
+        <v>-3.312815797651155E-3</v>
+      </c>
+      <c r="C62">
+        <v>-3.6480793230424741E-3</v>
       </c>
       <c r="D62" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="E62" s="1">
-        <v>420600</v>
-      </c>
-      <c r="F62" s="1">
-        <v>224.09299999999999</v>
+        <v>406000</v>
+      </c>
+      <c r="F62">
+        <v>4.6940989750992937E-3</v>
       </c>
       <c r="G62">
         <v>100.26</v>
@@ -1836,20 +1856,20 @@
       <c r="A63" s="2">
         <v>40664</v>
       </c>
-      <c r="B63" s="1">
-        <v>93.772300000000001</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1154888</v>
+      <c r="B63">
+        <v>1.2300188666956539E-3</v>
+      </c>
+      <c r="C63">
+        <v>-7.8486354233246042E-3</v>
       </c>
       <c r="D63" s="1">
         <v>0.09</v>
       </c>
       <c r="E63" s="1">
-        <v>422500</v>
-      </c>
-      <c r="F63" s="1">
-        <v>224.80600000000001</v>
+        <v>420600</v>
+      </c>
+      <c r="F63">
+        <v>3.1817147345076478E-3</v>
       </c>
       <c r="G63">
         <v>100.06</v>
@@ -1859,20 +1879,20 @@
       <c r="A64" s="2">
         <v>40695</v>
       </c>
-      <c r="B64" s="1">
-        <v>94.049300000000002</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1166558</v>
+      <c r="B64">
+        <v>2.9539640170924784E-3</v>
+      </c>
+      <c r="C64">
+        <v>1.0104875970656894E-2</v>
       </c>
       <c r="D64" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="E64" s="1">
-        <v>418250</v>
-      </c>
-      <c r="F64" s="1">
-        <v>224.80600000000001</v>
+        <v>422500</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
       <c r="G64">
         <v>99.8</v>
@@ -1882,20 +1902,20 @@
       <c r="A65" s="2">
         <v>40725</v>
       </c>
-      <c r="B65" s="1">
-        <v>94.495800000000003</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1171851</v>
+      <c r="B65">
+        <v>4.7475100824780226E-3</v>
+      </c>
+      <c r="C65">
+        <v>4.5372797580574649E-3</v>
       </c>
       <c r="D65" s="1">
         <v>0.09</v>
       </c>
       <c r="E65" s="1">
-        <v>412600</v>
-      </c>
-      <c r="F65" s="1">
-        <v>225.39500000000001</v>
+        <v>418250</v>
+      </c>
+      <c r="F65">
+        <v>2.6200368317571532E-3</v>
       </c>
       <c r="G65">
         <v>99.51</v>
@@ -1905,20 +1925,20 @@
       <c r="A66" s="2">
         <v>40756</v>
       </c>
-      <c r="B66" s="1">
-        <v>95.097399999999993</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1180548</v>
+      <c r="B66">
+        <v>6.3664205181604957E-3</v>
+      </c>
+      <c r="C66">
+        <v>7.4215919942040411E-3</v>
       </c>
       <c r="D66" s="1">
         <v>0.09</v>
       </c>
       <c r="E66" s="1">
-        <v>409500</v>
-      </c>
-      <c r="F66" s="1">
-        <v>226.10599999999999</v>
+        <v>412600</v>
+      </c>
+      <c r="F66">
+        <v>3.1544621664188837E-3</v>
       </c>
       <c r="G66">
         <v>99.27</v>
@@ -1928,20 +1948,20 @@
       <c r="A67" s="2">
         <v>40787</v>
       </c>
-      <c r="B67" s="1">
-        <v>95.0244</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1172878</v>
+      <c r="B67">
+        <v>-7.6763402574616443E-4</v>
+      </c>
+      <c r="C67">
+        <v>-6.4969827571602339E-3</v>
       </c>
       <c r="D67" s="1">
         <v>0.09</v>
       </c>
       <c r="E67" s="1">
-        <v>417750</v>
-      </c>
-      <c r="F67" s="1">
-        <v>226.59700000000001</v>
+        <v>409500</v>
+      </c>
+      <c r="F67">
+        <v>2.1715478580843226E-3</v>
       </c>
       <c r="G67">
         <v>99.14</v>
@@ -1951,20 +1971,20 @@
       <c r="A68" s="2">
         <v>40817</v>
       </c>
-      <c r="B68" s="1">
-        <v>95.689099999999996</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1187685</v>
+      <c r="B68">
+        <v>6.9950454830548393E-3</v>
+      </c>
+      <c r="C68">
+        <v>1.2624501440047472E-2</v>
       </c>
       <c r="D68" s="1">
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="E68" s="1">
-        <v>402400</v>
-      </c>
-      <c r="F68" s="1">
-        <v>226.75</v>
+        <v>415200</v>
+      </c>
+      <c r="F68">
+        <v>6.7520752701929674E-4</v>
       </c>
       <c r="G68">
         <v>99.16</v>
@@ -1974,20 +1994,20 @@
       <c r="A69" s="2">
         <v>40848</v>
       </c>
-      <c r="B69" s="1">
-        <v>95.677800000000005</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1183388</v>
+      <c r="B69">
+        <v>-1.1809077522927302E-4</v>
+      </c>
+      <c r="C69">
+        <v>-3.6179626752884816E-3</v>
       </c>
       <c r="D69" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="E69" s="1">
-        <v>389250</v>
-      </c>
-      <c r="F69" s="1">
-        <v>227.16900000000001</v>
+        <v>401750</v>
+      </c>
+      <c r="F69">
+        <v>1.8478500551268406E-3</v>
       </c>
       <c r="G69">
         <v>99.3</v>
@@ -1997,20 +2017,20 @@
       <c r="A70" s="2">
         <v>40878</v>
       </c>
-      <c r="B70" s="1">
-        <v>96.180899999999994</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1193759</v>
+      <c r="B70">
+        <v>5.2582730790213528E-3</v>
+      </c>
+      <c r="C70">
+        <v>8.7638204882929359E-3</v>
       </c>
       <c r="D70" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E70" s="1">
-        <v>377000</v>
-      </c>
-      <c r="F70" s="1">
-        <v>227.22300000000001</v>
+        <v>389250</v>
+      </c>
+      <c r="F70">
+        <v>2.377084901549157E-4</v>
       </c>
       <c r="G70">
         <v>99.52</v>
@@ -2020,20 +2040,20 @@
       <c r="A71" s="2">
         <v>40909</v>
       </c>
-      <c r="B71" s="1">
-        <v>96.759500000000003</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1200818</v>
+      <c r="B71">
+        <v>6.0157474093090069E-3</v>
+      </c>
+      <c r="C71">
+        <v>5.913253847719682E-3</v>
       </c>
       <c r="D71" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E71" s="1">
-        <v>377750</v>
-      </c>
-      <c r="F71" s="1">
-        <v>227.84200000000001</v>
+        <v>377000</v>
+      </c>
+      <c r="F71">
+        <v>2.7241960540966351E-3</v>
       </c>
       <c r="G71">
         <v>99.73</v>
@@ -2043,20 +2063,20 @@
       <c r="A72" s="2">
         <v>40940</v>
       </c>
-      <c r="B72" s="1">
-        <v>97.066199999999995</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1205143</v>
+      <c r="B72">
+        <v>3.1697146016669391E-3</v>
+      </c>
+      <c r="C72">
+        <v>3.6017114999941707E-3</v>
       </c>
       <c r="D72" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E72" s="1">
-        <v>363250</v>
-      </c>
-      <c r="F72" s="1">
-        <v>228.32900000000001</v>
+        <v>377750</v>
+      </c>
+      <c r="F72">
+        <v>2.1374461249462117E-3</v>
       </c>
       <c r="G72">
         <v>99.88</v>
@@ -2066,20 +2086,20 @@
       <c r="A73" s="2">
         <v>40969</v>
       </c>
-      <c r="B73" s="1">
-        <v>96.560900000000004</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1204027</v>
+      <c r="B73">
+        <v>-5.2057255769772711E-3</v>
+      </c>
+      <c r="C73">
+        <v>-9.2603118468098807E-4</v>
       </c>
       <c r="D73" s="1">
         <v>8.199999999999999E-2</v>
       </c>
       <c r="E73" s="1">
-        <v>366600</v>
-      </c>
-      <c r="F73" s="1">
-        <v>228.80699999999999</v>
+        <v>363250</v>
+      </c>
+      <c r="F73">
+        <v>2.0934703870291562E-3</v>
       </c>
       <c r="G73">
         <v>99.94</v>
@@ -2089,20 +2109,20 @@
       <c r="A74" s="2">
         <v>41000</v>
       </c>
-      <c r="B74" s="1">
-        <v>97.251000000000005</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1207954</v>
+      <c r="B74">
+        <v>7.1467850858888127E-3</v>
+      </c>
+      <c r="C74">
+        <v>3.2615547657984414E-3</v>
       </c>
       <c r="D74" s="1">
         <v>8.199999999999999E-2</v>
       </c>
       <c r="E74" s="1">
-        <v>381750</v>
-      </c>
-      <c r="F74" s="1">
-        <v>229.18700000000001</v>
+        <v>366600</v>
+      </c>
+      <c r="F74">
+        <v>1.6607883500068788E-3</v>
       </c>
       <c r="G74">
         <v>99.91</v>
@@ -2112,20 +2132,20 @@
       <c r="A75" s="2">
         <v>41030</v>
       </c>
-      <c r="B75" s="1">
-        <v>97.459500000000006</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1211617</v>
+      <c r="B75">
+        <v>2.143936823271748E-3</v>
+      </c>
+      <c r="C75">
+        <v>3.0324002404065057E-3</v>
       </c>
       <c r="D75" s="1">
         <v>8.199999999999999E-2</v>
       </c>
       <c r="E75" s="1">
-        <v>373500</v>
-      </c>
-      <c r="F75" s="1">
-        <v>228.71299999999999</v>
+        <v>381750</v>
+      </c>
+      <c r="F75">
+        <v>-2.0681801323810599E-3</v>
       </c>
       <c r="G75">
         <v>99.82</v>
@@ -2135,20 +2155,20 @@
       <c r="A76" s="2">
         <v>41061</v>
       </c>
-      <c r="B76" s="1">
-        <v>97.476799999999997</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1208240</v>
+      <c r="B76">
+        <v>1.7750963220611283E-4</v>
+      </c>
+      <c r="C76">
+        <v>-2.7871843990303867E-3</v>
       </c>
       <c r="D76" s="1">
         <v>8.199999999999999E-2</v>
       </c>
       <c r="E76" s="1">
-        <v>379200</v>
-      </c>
-      <c r="F76" s="1">
-        <v>228.524</v>
+        <v>373500</v>
+      </c>
+      <c r="F76">
+        <v>-8.2636317131073859E-4</v>
       </c>
       <c r="G76">
         <v>99.7</v>
@@ -2158,20 +2178,20 @@
       <c r="A77" s="2">
         <v>41091</v>
       </c>
-      <c r="B77" s="1">
-        <v>97.671400000000006</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1210539</v>
+      <c r="B77">
+        <v>1.9963724701673458E-3</v>
+      </c>
+      <c r="C77">
+        <v>1.9027676620538966E-3</v>
       </c>
       <c r="D77" s="1">
         <v>8.199999999999999E-2</v>
       </c>
       <c r="E77" s="1">
-        <v>372500</v>
-      </c>
-      <c r="F77" s="1">
-        <v>228.59</v>
+        <v>379200</v>
+      </c>
+      <c r="F77">
+        <v>2.8880992806008343E-4</v>
       </c>
       <c r="G77">
         <v>99.61</v>
@@ -2181,20 +2201,20 @@
       <c r="A78" s="2">
         <v>41122</v>
       </c>
-      <c r="B78" s="1">
-        <v>97.273399999999995</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1209461</v>
+      <c r="B78">
+        <v>-4.0748878382004389E-3</v>
+      </c>
+      <c r="C78">
+        <v>-8.9051240810911507E-4</v>
       </c>
       <c r="D78" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="E78" s="1">
-        <v>373250</v>
-      </c>
-      <c r="F78" s="1">
-        <v>229.91800000000001</v>
+        <v>372500</v>
+      </c>
+      <c r="F78">
+        <v>5.8095279758519748E-3</v>
       </c>
       <c r="G78">
         <v>99.58</v>
@@ -2204,20 +2224,20 @@
       <c r="A79" s="2">
         <v>41153</v>
       </c>
-      <c r="B79" s="1">
-        <v>97.221699999999998</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1211283</v>
+      <c r="B79">
+        <v>-5.3149165136611603E-4</v>
+      </c>
+      <c r="C79">
+        <v>1.5064561817206177E-3</v>
       </c>
       <c r="D79" s="1">
         <v>7.8E-2</v>
       </c>
       <c r="E79" s="1">
-        <v>381800</v>
-      </c>
-      <c r="F79" s="1">
-        <v>231.01499999999999</v>
+        <v>372800</v>
+      </c>
+      <c r="F79">
+        <v>4.7712662775423412E-3</v>
       </c>
       <c r="G79">
         <v>99.61</v>
@@ -2227,20 +2247,20 @@
       <c r="A80" s="2">
         <v>41183</v>
       </c>
-      <c r="B80" s="1">
-        <v>97.531099999999995</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1206602</v>
+      <c r="B80">
+        <v>3.1824170941260705E-3</v>
+      </c>
+      <c r="C80">
+        <v>-3.8644973965621578E-3</v>
       </c>
       <c r="D80" s="1">
         <v>7.8E-2</v>
       </c>
       <c r="E80" s="1">
-        <v>368500</v>
-      </c>
-      <c r="F80" s="1">
-        <v>231.63800000000001</v>
+        <v>384500</v>
+      </c>
+      <c r="F80">
+        <v>2.6967945804385815E-3</v>
       </c>
       <c r="G80">
         <v>99.68</v>
@@ -2250,20 +2270,20 @@
       <c r="A81" s="2">
         <v>41214</v>
       </c>
-      <c r="B81" s="1">
-        <v>97.9084</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1228837</v>
+      <c r="B81">
+        <v>3.8685096343628374E-3</v>
+      </c>
+      <c r="C81">
+        <v>1.8427783146389612E-2</v>
       </c>
       <c r="D81" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E81" s="1">
-        <v>401250</v>
-      </c>
-      <c r="F81" s="1">
-        <v>231.249</v>
+        <v>368500</v>
+      </c>
+      <c r="F81">
+        <v>-1.6793444944266916E-3</v>
       </c>
       <c r="G81">
         <v>99.78</v>
@@ -2273,20 +2293,20 @@
       <c r="A82" s="2">
         <v>41244</v>
       </c>
-      <c r="B82" s="1">
-        <v>98.188400000000001</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1233388</v>
+      <c r="B82">
+        <v>2.8598159095644614E-3</v>
+      </c>
+      <c r="C82">
+        <v>3.7035017663042372E-3</v>
       </c>
       <c r="D82" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="E82" s="1">
-        <v>359000</v>
-      </c>
-      <c r="F82" s="1">
-        <v>231.221</v>
+        <v>396000</v>
+      </c>
+      <c r="F82">
+        <v>-1.2108160467717304E-4</v>
       </c>
       <c r="G82">
         <v>99.9</v>
@@ -2296,20 +2316,20 @@
       <c r="A83" s="2">
         <v>41275</v>
       </c>
-      <c r="B83" s="1">
-        <v>98.173599999999993</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1237216</v>
+      <c r="B83">
+        <v>-1.5073063620558172E-4</v>
+      </c>
+      <c r="C83">
+        <v>3.1036462167622842E-3</v>
       </c>
       <c r="D83" s="1">
         <v>0.08</v>
       </c>
       <c r="E83" s="1">
-        <v>353000</v>
-      </c>
-      <c r="F83" s="1">
-        <v>231.679</v>
+        <v>355000</v>
+      </c>
+      <c r="F83">
+        <v>1.9807889421808505E-3</v>
       </c>
       <c r="G83">
         <v>100.05</v>
@@ -2319,11 +2339,11 @@
       <c r="A84" s="2">
         <v>41306</v>
       </c>
-      <c r="B84" s="1">
-        <v>98.6434</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1242279</v>
+      <c r="B84">
+        <v>4.7854005557502882E-3</v>
+      </c>
+      <c r="C84">
+        <v>4.0922522825440344E-3</v>
       </c>
       <c r="D84" s="1">
         <v>7.6999999999999999E-2</v>
@@ -2331,8 +2351,8 @@
       <c r="E84" s="1">
         <v>353000</v>
       </c>
-      <c r="F84" s="1">
-        <v>232.93700000000001</v>
+      <c r="F84">
+        <v>5.4299267521010098E-3</v>
       </c>
       <c r="G84">
         <v>100.2</v>
@@ -2342,20 +2362,20 @@
       <c r="A85" s="2">
         <v>41334</v>
       </c>
-      <c r="B85" s="1">
-        <v>99.046999999999997</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1235591</v>
+      <c r="B85">
+        <v>4.0915053617373012E-3</v>
+      </c>
+      <c r="C85">
+        <v>-5.383653752498432E-3</v>
       </c>
       <c r="D85" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E85" s="1">
-        <v>351800</v>
-      </c>
-      <c r="F85" s="1">
-        <v>232.28200000000001</v>
+        <v>353000</v>
+      </c>
+      <c r="F85">
+        <v>-2.8119191025899755E-3</v>
       </c>
       <c r="G85">
         <v>100.32</v>
@@ -2365,20 +2385,20 @@
       <c r="A86" s="2">
         <v>41365</v>
       </c>
-      <c r="B86" s="1">
-        <v>98.944500000000005</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1233842</v>
+      <c r="B86">
+        <v>-1.034862237119671E-3</v>
+      </c>
+      <c r="C86">
+        <v>-1.4155169469508924E-3</v>
       </c>
       <c r="D86" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="E86" s="1">
-        <v>347250</v>
-      </c>
-      <c r="F86" s="1">
-        <v>231.797</v>
+        <v>351800</v>
+      </c>
+      <c r="F86">
+        <v>-2.087979266581197E-3</v>
       </c>
       <c r="G86">
         <v>100.44</v>
@@ -2388,20 +2408,20 @@
       <c r="A87" s="2">
         <v>41395</v>
       </c>
-      <c r="B87" s="1">
-        <v>99.038300000000007</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1247803</v>
+      <c r="B87">
+        <v>9.4800620549905911E-4</v>
+      </c>
+      <c r="C87">
+        <v>1.1315063030760826E-2</v>
       </c>
       <c r="D87" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E87" s="1">
-        <v>347750</v>
-      </c>
-      <c r="F87" s="1">
-        <v>231.893</v>
+        <v>347250</v>
+      </c>
+      <c r="F87">
+        <v>4.1415548950160546E-4</v>
       </c>
       <c r="G87">
         <v>100.55</v>
@@ -2411,20 +2431,20 @@
       <c r="A88" s="2">
         <v>41426</v>
       </c>
-      <c r="B88" s="1">
-        <v>99.222099999999998</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1243929</v>
+      <c r="B88">
+        <v>1.8558476872077858E-3</v>
+      </c>
+      <c r="C88">
+        <v>-3.1046567446944748E-3</v>
       </c>
       <c r="D88" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E88" s="1">
-        <v>344600</v>
-      </c>
-      <c r="F88" s="1">
-        <v>232.44499999999999</v>
+        <v>347400</v>
+      </c>
+      <c r="F88">
+        <v>2.3804082055085426E-3</v>
       </c>
       <c r="G88">
         <v>100.64</v>
@@ -2434,20 +2454,20 @@
       <c r="A89" s="2">
         <v>41456</v>
       </c>
-      <c r="B89" s="1">
-        <v>98.898700000000005</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1244157</v>
+      <c r="B89">
+        <v>-3.2593545188016821E-3</v>
+      </c>
+      <c r="C89">
+        <v>1.8329020386211752E-4</v>
       </c>
       <c r="D89" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E89" s="1">
-        <v>346000</v>
-      </c>
-      <c r="F89" s="1">
-        <v>232.9</v>
+        <v>344250</v>
+      </c>
+      <c r="F89">
+        <v>1.9574523005442684E-3</v>
       </c>
       <c r="G89">
         <v>100.69</v>
@@ -2457,20 +2477,20 @@
       <c r="A90" s="2">
         <v>41487</v>
       </c>
-      <c r="B90" s="1">
-        <v>99.489699999999999</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1249320</v>
+      <c r="B90">
+        <v>5.9758116132971814E-3</v>
+      </c>
+      <c r="C90">
+        <v>4.1497978149059962E-3</v>
       </c>
       <c r="D90" s="1">
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="E90" s="1">
-        <v>333400</v>
-      </c>
-      <c r="F90" s="1">
-        <v>233.45599999999999</v>
+        <v>346000</v>
+      </c>
+      <c r="F90">
+        <v>2.3872906826963641E-3</v>
       </c>
       <c r="G90">
         <v>100.72</v>
@@ -2480,20 +2500,20 @@
       <c r="A91" s="2">
         <v>41518</v>
       </c>
-      <c r="B91" s="1">
-        <v>100.021</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1253661</v>
+      <c r="B91">
+        <v>5.3402513023961444E-3</v>
+      </c>
+      <c r="C91">
+        <v>3.4746902314859284E-3</v>
       </c>
       <c r="D91" s="1">
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="E91" s="1">
-        <v>314000</v>
-      </c>
-      <c r="F91" s="1">
-        <v>233.54400000000001</v>
+        <v>333400</v>
+      </c>
+      <c r="F91">
+        <v>3.7694469193347903E-4</v>
       </c>
       <c r="G91">
         <v>100.74</v>
@@ -2503,20 +2523,20 @@
       <c r="A92" s="2">
         <v>41548</v>
       </c>
-      <c r="B92" s="1">
-        <v>99.903700000000001</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1260475</v>
+      <c r="B92">
+        <v>-1.172753721718441E-3</v>
+      </c>
+      <c r="C92">
+        <v>5.4352811485720619E-3</v>
       </c>
       <c r="D92" s="1">
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="E92" s="1">
-        <v>358500</v>
-      </c>
-      <c r="F92" s="1">
-        <v>233.66900000000001</v>
+        <v>314000</v>
+      </c>
+      <c r="F92">
+        <v>5.3523104853903331E-4</v>
       </c>
       <c r="G92">
         <v>100.74</v>
@@ -2526,20 +2546,20 @@
       <c r="A93" s="2">
         <v>41579</v>
       </c>
-      <c r="B93" s="1">
-        <v>100.15819999999999</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1275801</v>
+      <c r="B93">
+        <v>2.5474531974290547E-3</v>
+      </c>
+      <c r="C93">
+        <v>1.2158908348043396E-2</v>
       </c>
       <c r="D93" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="E93" s="1">
-        <v>328200</v>
-      </c>
-      <c r="F93" s="1">
-        <v>234.1</v>
+        <v>358500</v>
+      </c>
+      <c r="F93">
+        <v>1.8444894273522939E-3</v>
       </c>
       <c r="G93">
         <v>100.74</v>
@@ -2549,20 +2569,20 @@
       <c r="A94" s="2">
         <v>41609</v>
       </c>
-      <c r="B94" s="1">
-        <v>100.374</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1270949</v>
+      <c r="B94">
+        <v>2.1545914363477136E-3</v>
+      </c>
+      <c r="C94">
+        <v>-3.8031009538321415E-3</v>
       </c>
       <c r="D94" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E94" s="1">
-        <v>346000</v>
-      </c>
-      <c r="F94" s="1">
-        <v>234.71899999999999</v>
+        <v>328200</v>
+      </c>
+      <c r="F94">
+        <v>2.6441691584792814E-3</v>
       </c>
       <c r="G94">
         <v>100.74</v>
@@ -2572,20 +2592,20 @@
       <c r="A95" s="2">
         <v>41640</v>
       </c>
-      <c r="B95" s="1">
-        <v>99.989900000000006</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1258055</v>
+      <c r="B95">
+        <v>-3.8266881861835681E-3</v>
+      </c>
+      <c r="C95">
+        <v>-1.0145174983417903E-2</v>
       </c>
       <c r="D95" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="E95" s="1">
-        <v>326750</v>
-      </c>
-      <c r="F95" s="1">
-        <v>235.28800000000001</v>
+        <v>346000</v>
+      </c>
+      <c r="F95">
+        <v>2.4241752904537632E-3</v>
       </c>
       <c r="G95">
         <v>100.73</v>
@@ -2595,20 +2615,20 @@
       <c r="A96" s="2">
         <v>41671</v>
       </c>
-      <c r="B96" s="1">
-        <v>100.7471</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1268722</v>
+      <c r="B96">
+        <v>7.5727648492497478E-3</v>
+      </c>
+      <c r="C96">
+        <v>8.4789615716324013E-3</v>
       </c>
       <c r="D96" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E96" s="1">
-        <v>335250</v>
-      </c>
-      <c r="F96" s="1">
-        <v>235.547</v>
+        <v>327600</v>
+      </c>
+      <c r="F96">
+        <v>1.1007786202440674E-3</v>
       </c>
       <c r="G96">
         <v>100.75</v>
@@ -2618,20 +2638,20 @@
       <c r="A97" s="2">
         <v>41699</v>
       </c>
-      <c r="B97" s="1">
-        <v>101.7435</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1279006</v>
+      <c r="B97">
+        <v>9.8901109808619218E-3</v>
+      </c>
+      <c r="C97">
+        <v>8.10579465004942E-3</v>
       </c>
       <c r="D97" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E97" s="1">
-        <v>321000</v>
-      </c>
-      <c r="F97" s="1">
-        <v>236.02799999999999</v>
+        <v>332250</v>
+      </c>
+      <c r="F97">
+        <v>2.0420553010651573E-3</v>
       </c>
       <c r="G97">
         <v>100.79</v>
@@ -2641,20 +2661,20 @@
       <c r="A98" s="2">
         <v>41730</v>
       </c>
-      <c r="B98" s="1">
-        <v>101.82729999999999</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1280443</v>
+      <c r="B98">
+        <v>8.2363983940002597E-4</v>
+      </c>
+      <c r="C98">
+        <v>1.1235287402873795E-3</v>
       </c>
       <c r="D98" s="1">
         <v>6.2E-2</v>
       </c>
       <c r="E98" s="1">
-        <v>322750</v>
-      </c>
-      <c r="F98" s="1">
-        <v>236.46799999999999</v>
+        <v>321500</v>
+      </c>
+      <c r="F98">
+        <v>1.8641856050976907E-3</v>
       </c>
       <c r="G98">
         <v>100.85</v>
@@ -2664,20 +2684,20 @@
       <c r="A99" s="2">
         <v>41760</v>
       </c>
-      <c r="B99" s="1">
-        <v>102.2392</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1283964</v>
+      <c r="B99">
+        <v>4.045084176836692E-3</v>
+      </c>
+      <c r="C99">
+        <v>2.7498295511787715E-3</v>
       </c>
       <c r="D99" s="1">
         <v>6.3E-2</v>
       </c>
       <c r="E99" s="1">
-        <v>313800</v>
-      </c>
-      <c r="F99" s="1">
-        <v>236.91800000000001</v>
+        <v>322750</v>
+      </c>
+      <c r="F99">
+        <v>1.9030059035472751E-3</v>
       </c>
       <c r="G99">
         <v>100.9</v>
@@ -2687,20 +2707,20 @@
       <c r="A100" s="2">
         <v>41791</v>
       </c>
-      <c r="B100" s="1">
-        <v>102.5774</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1283791</v>
+      <c r="B100">
+        <v>3.3079288570333153E-3</v>
+      </c>
+      <c r="C100">
+        <v>-1.3473898022062924E-4</v>
       </c>
       <c r="D100" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E100" s="1">
-        <v>313500</v>
-      </c>
-      <c r="F100" s="1">
-        <v>237.23099999999999</v>
+        <v>313800</v>
+      </c>
+      <c r="F100">
+        <v>1.3211322060796907E-3</v>
       </c>
       <c r="G100">
         <v>100.94</v>
@@ -2710,20 +2730,20 @@
       <c r="A101" s="2">
         <v>41821</v>
       </c>
-      <c r="B101" s="1">
-        <v>102.7954</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1291656</v>
+      <c r="B101">
+        <v>2.125224464648193E-3</v>
+      </c>
+      <c r="C101">
+        <v>6.1263866158899694E-3</v>
       </c>
       <c r="D101" s="1">
         <v>6.2E-2</v>
       </c>
       <c r="E101" s="1">
-        <v>301750</v>
-      </c>
-      <c r="F101" s="1">
-        <v>237.49799999999999</v>
+        <v>313500</v>
+      </c>
+      <c r="F101">
+        <v>1.1254852864928948E-3</v>
       </c>
       <c r="G101">
         <v>100.95</v>
@@ -2733,20 +2753,20 @@
       <c r="A102" s="2">
         <v>41852</v>
       </c>
-      <c r="B102" s="1">
-        <v>102.6322</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1294102</v>
+      <c r="B102">
+        <v>-1.5876196794798536E-3</v>
+      </c>
+      <c r="C102">
+        <v>1.8936930575942821E-3</v>
       </c>
       <c r="D102" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E102" s="1">
-        <v>302000</v>
-      </c>
-      <c r="F102" s="1">
-        <v>237.46</v>
+        <v>301750</v>
+      </c>
+      <c r="F102">
+        <v>-1.600013473796937E-4</v>
       </c>
       <c r="G102">
         <v>100.95</v>
@@ -2756,20 +2776,20 @@
       <c r="A103" s="2">
         <v>41883</v>
       </c>
-      <c r="B103" s="1">
-        <v>102.9417</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1293829</v>
+      <c r="B103">
+        <v>3.015622777257039E-3</v>
+      </c>
+      <c r="C103">
+        <v>-2.1095709611761669E-4</v>
       </c>
       <c r="D103" s="1">
         <v>5.9000000000000004E-2</v>
       </c>
       <c r="E103" s="1">
-        <v>295000</v>
-      </c>
-      <c r="F103" s="1">
-        <v>237.477</v>
+        <v>302000</v>
+      </c>
+      <c r="F103">
+        <v>7.1591004800791315E-5</v>
       </c>
       <c r="G103">
         <v>100.94</v>
@@ -2779,20 +2799,20 @@
       <c r="A104" s="2">
         <v>41913</v>
       </c>
-      <c r="B104" s="1">
-        <v>102.9611</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1295747</v>
+      <c r="B104">
+        <v>1.8845618442287745E-4</v>
+      </c>
+      <c r="C104">
+        <v>1.4824215564808022E-3</v>
       </c>
       <c r="D104" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E104" s="1">
-        <v>288750</v>
-      </c>
-      <c r="F104" s="1">
-        <v>237.43</v>
+        <v>295000</v>
+      </c>
+      <c r="F104">
+        <v>-1.9791390324114353E-4</v>
       </c>
       <c r="G104">
         <v>100.91</v>
@@ -2802,20 +2822,20 @@
       <c r="A105" s="2">
         <v>41944</v>
       </c>
-      <c r="B105" s="1">
-        <v>103.59780000000001</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1298950</v>
+      <c r="B105">
+        <v>6.1838888667662319E-3</v>
+      </c>
+      <c r="C105">
+        <v>2.4719331783133588E-3</v>
       </c>
       <c r="D105" s="1">
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="E105" s="1">
-        <v>291600</v>
-      </c>
-      <c r="F105" s="1">
-        <v>236.983</v>
+        <v>287000</v>
+      </c>
+      <c r="F105">
+        <v>-1.8826601524660014E-3</v>
       </c>
       <c r="G105">
         <v>100.86</v>
@@ -2825,20 +2845,20 @@
       <c r="A106" s="2">
         <v>41974</v>
       </c>
-      <c r="B106" s="1">
-        <v>103.6151</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1306392</v>
+      <c r="B106">
+        <v>1.6699196314971606E-4</v>
+      </c>
+      <c r="C106">
+        <v>5.7292428499942259E-3</v>
       </c>
       <c r="D106" s="1">
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="E106" s="1">
-        <v>284500</v>
-      </c>
-      <c r="F106" s="1">
-        <v>236.25200000000001</v>
+        <v>294500</v>
+      </c>
+      <c r="F106">
+        <v>-3.0846094445592912E-3</v>
       </c>
       <c r="G106">
         <v>100.79</v>
@@ -2848,20 +2868,20 @@
       <c r="A107" s="2">
         <v>42005</v>
       </c>
-      <c r="B107" s="1">
-        <v>102.7923</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1308978</v>
+      <c r="B107">
+        <v>-7.9409275289026495E-3</v>
+      </c>
+      <c r="C107">
+        <v>1.9794977311557329E-3</v>
       </c>
       <c r="D107" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E107" s="1">
-        <v>287600</v>
-      </c>
-      <c r="F107" s="1">
-        <v>234.74700000000001</v>
+        <v>284500</v>
+      </c>
+      <c r="F107">
+        <v>-6.370316441765553E-3</v>
       </c>
       <c r="G107">
         <v>100.7</v>
@@ -2871,20 +2891,20 @@
       <c r="A108" s="2">
         <v>42036</v>
       </c>
-      <c r="B108" s="1">
-        <v>102.1366</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1303724</v>
+      <c r="B108">
+        <v>-6.3788824649316728E-3</v>
+      </c>
+      <c r="C108">
+        <v>-4.013818414060435E-3</v>
       </c>
       <c r="D108" s="1">
         <v>5.5E-2</v>
       </c>
       <c r="E108" s="1">
-        <v>301250</v>
-      </c>
-      <c r="F108" s="1">
-        <v>235.34200000000001</v>
+        <v>287600</v>
+      </c>
+      <c r="F108">
+        <v>2.5346436802174206E-3</v>
       </c>
       <c r="G108">
         <v>100.6</v>
@@ -2894,20 +2914,20 @@
       <c r="A109" s="2">
         <v>42064</v>
       </c>
-      <c r="B109" s="1">
-        <v>101.7869</v>
-      </c>
-      <c r="C109" s="1">
-        <v>1310961</v>
+      <c r="B109">
+        <v>-3.4238461041389526E-3</v>
+      </c>
+      <c r="C109">
+        <v>5.5510215352329176E-3</v>
       </c>
       <c r="D109" s="1">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="E109" s="1">
-        <v>284000</v>
-      </c>
-      <c r="F109" s="1">
-        <v>235.976</v>
+        <v>301250</v>
+      </c>
+      <c r="F109">
+        <v>2.6939517808125457E-3</v>
       </c>
       <c r="G109">
         <v>100.49</v>
@@ -2917,20 +2937,20 @@
       <c r="A110" s="2">
         <v>42095</v>
       </c>
-      <c r="B110" s="1">
-        <v>101.2255</v>
-      </c>
-      <c r="C110" s="1">
-        <v>1321167</v>
+      <c r="B110">
+        <v>-5.5154445218393144E-3</v>
+      </c>
+      <c r="C110">
+        <v>7.785128619386847E-3</v>
       </c>
       <c r="D110" s="1">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="E110" s="1">
-        <v>286000</v>
-      </c>
-      <c r="F110" s="1">
-        <v>236.22200000000001</v>
+        <v>284000</v>
+      </c>
+      <c r="F110">
+        <v>1.0424788961589709E-3</v>
       </c>
       <c r="G110">
         <v>100.38</v>
@@ -2940,20 +2960,20 @@
       <c r="A111" s="2">
         <v>42125</v>
       </c>
-      <c r="B111" s="1">
-        <v>100.7675</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1307579</v>
+      <c r="B111">
+        <v>-4.5245516198981327E-3</v>
+      </c>
+      <c r="C111">
+        <v>-1.0284846654510746E-2</v>
       </c>
       <c r="D111" s="1">
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="E111" s="1">
-        <v>274000</v>
-      </c>
-      <c r="F111" s="1">
-        <v>237.001</v>
+        <v>286000</v>
+      </c>
+      <c r="F111">
+        <v>3.2977453412467777E-3</v>
       </c>
       <c r="G111">
         <v>100.26</v>
@@ -2963,20 +2983,20 @@
       <c r="A112" s="2">
         <v>42156</v>
       </c>
-      <c r="B112" s="1">
-        <v>100.4588</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1309833</v>
+      <c r="B112">
+        <v>-3.0634877316595309E-3</v>
+      </c>
+      <c r="C112">
+        <v>1.7237964207133948E-3</v>
       </c>
       <c r="D112" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="E112" s="1">
-        <v>273750</v>
-      </c>
-      <c r="F112" s="1">
-        <v>237.65700000000001</v>
+        <v>274000</v>
+      </c>
+      <c r="F112">
+        <v>2.7679208104607403E-3</v>
       </c>
       <c r="G112">
         <v>100.14</v>
@@ -2986,20 +3006,20 @@
       <c r="A113" s="2">
         <v>42186</v>
       </c>
-      <c r="B113" s="1">
-        <v>101.08929999999999</v>
-      </c>
-      <c r="C113" s="1">
-        <v>1313431</v>
+      <c r="B113">
+        <v>6.2762047725037316E-3</v>
+      </c>
+      <c r="C113">
+        <v>2.7469150647448952E-3</v>
       </c>
       <c r="D113" s="1">
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="E113" s="1">
-        <v>277750</v>
-      </c>
-      <c r="F113" s="1">
-        <v>238.03399999999999</v>
+        <v>273750</v>
+      </c>
+      <c r="F113">
+        <v>1.5863197801873335E-3</v>
       </c>
       <c r="G113">
         <v>99.98</v>
@@ -3009,20 +3029,20 @@
       <c r="A114" s="2">
         <v>42217</v>
       </c>
-      <c r="B114" s="1">
-        <v>100.9165</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1315072</v>
+      <c r="B114">
+        <v>-1.7093797266376875E-3</v>
+      </c>
+      <c r="C114">
+        <v>1.2493994735924461E-3</v>
       </c>
       <c r="D114" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E114" s="1">
-        <v>275200</v>
-      </c>
-      <c r="F114" s="1">
-        <v>238.03299999999999</v>
+        <v>276200</v>
+      </c>
+      <c r="F114">
+        <v>-4.2010805179292661E-6</v>
       </c>
       <c r="G114">
         <v>99.79</v>
@@ -3032,20 +3052,20 @@
       <c r="A115" s="2">
         <v>42248</v>
       </c>
-      <c r="B115" s="1">
-        <v>100.633</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1327948</v>
+      <c r="B115">
+        <v>-2.8092531944726943E-3</v>
+      </c>
+      <c r="C115">
+        <v>9.7910988904029595E-3</v>
       </c>
       <c r="D115" s="1">
         <v>0.05</v>
       </c>
       <c r="E115" s="1">
-        <v>269500</v>
-      </c>
-      <c r="F115" s="1">
-        <v>237.49799999999999</v>
+        <v>276500</v>
+      </c>
+      <c r="F115">
+        <v>-2.2475875193775511E-3</v>
       </c>
       <c r="G115">
         <v>99.62</v>
@@ -3055,20 +3075,20 @@
       <c r="A116" s="2">
         <v>42278</v>
       </c>
-      <c r="B116" s="1">
-        <v>100.1563</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1325144</v>
+      <c r="B116">
+        <v>-4.7370146969681311E-3</v>
+      </c>
+      <c r="C116">
+        <v>-2.111528463463931E-3</v>
       </c>
       <c r="D116" s="1">
         <v>0.05</v>
       </c>
       <c r="E116" s="1">
-        <v>267000</v>
-      </c>
-      <c r="F116" s="1">
-        <v>237.733</v>
+        <v>269500</v>
+      </c>
+      <c r="F116">
+        <v>9.894820166907244E-4</v>
       </c>
       <c r="G116">
         <v>99.47</v>
@@ -3078,20 +3098,20 @@
       <c r="A117" s="2">
         <v>42309</v>
       </c>
-      <c r="B117" s="1">
-        <v>99.436599999999999</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1322511</v>
+      <c r="B117">
+        <v>-7.1857686436100684E-3</v>
+      </c>
+      <c r="C117">
+        <v>-1.9869538706736778E-3</v>
       </c>
       <c r="D117" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E117" s="1">
-        <v>268500</v>
-      </c>
-      <c r="F117" s="1">
-        <v>238.017</v>
+        <v>267000</v>
+      </c>
+      <c r="F117">
+        <v>1.1946174910508504E-3</v>
       </c>
       <c r="G117">
         <v>99.35</v>
@@ -3101,20 +3121,20 @@
       <c r="A118" s="2">
         <v>42339</v>
       </c>
-      <c r="B118" s="1">
-        <v>98.947100000000006</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1320606</v>
+      <c r="B118">
+        <v>-4.9227346872277667E-3</v>
+      </c>
+      <c r="C118">
+        <v>-1.4404417052107695E-3</v>
       </c>
       <c r="D118" s="1">
         <v>0.05</v>
       </c>
       <c r="E118" s="1">
-        <v>271000</v>
-      </c>
-      <c r="F118" s="1">
-        <v>237.761</v>
+        <v>268500</v>
+      </c>
+      <c r="F118">
+        <v>-1.0755534268560658E-3</v>
       </c>
       <c r="G118">
         <v>99.25</v>
@@ -3124,20 +3144,20 @@
       <c r="A119" s="2">
         <v>42370</v>
       </c>
-      <c r="B119" s="1">
-        <v>99.439099999999996</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1321509</v>
+      <c r="B119">
+        <v>4.9723539143642428E-3</v>
+      </c>
+      <c r="C119">
+        <v>6.8377699328944438E-4</v>
       </c>
       <c r="D119" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E119" s="1">
-        <v>279600</v>
-      </c>
-      <c r="F119" s="1">
-        <v>237.65199999999999</v>
+        <v>271000</v>
+      </c>
+      <c r="F119">
+        <v>-4.5844356307388038E-4</v>
       </c>
       <c r="G119">
         <v>99.17</v>
@@ -3147,20 +3167,20 @@
       <c r="A120" s="2">
         <v>42401</v>
       </c>
-      <c r="B120" s="1">
-        <v>98.923199999999994</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1332078</v>
+      <c r="B120">
+        <v>-5.1881000531984103E-3</v>
+      </c>
+      <c r="C120">
+        <v>7.9976753847306372E-3</v>
       </c>
       <c r="D120" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E120" s="1">
-        <v>266750</v>
-      </c>
-      <c r="F120" s="1">
-        <v>237.33600000000001</v>
+        <v>279600</v>
+      </c>
+      <c r="F120">
+        <v>-1.3296753235822719E-3</v>
       </c>
       <c r="G120">
         <v>99.11</v>
@@ -3170,20 +3190,20 @@
       <c r="A121" s="2">
         <v>42430</v>
       </c>
-      <c r="B121" s="1">
-        <v>98.163499999999999</v>
-      </c>
-      <c r="C121" s="1">
-        <v>1332612</v>
+      <c r="B121">
+        <v>-7.6796949552783893E-3</v>
+      </c>
+      <c r="C121">
+        <v>4.0087742609667E-4</v>
       </c>
       <c r="D121" s="1">
         <v>0.05</v>
       </c>
       <c r="E121" s="1">
-        <v>263250</v>
-      </c>
-      <c r="F121" s="1">
-        <v>238.08</v>
+        <v>266750</v>
+      </c>
+      <c r="F121">
+        <v>3.1347962382445131E-3</v>
       </c>
       <c r="G121">
         <v>99.09</v>
@@ -3193,20 +3213,20 @@
       <c r="A122" s="2">
         <v>42461</v>
       </c>
-      <c r="B122" s="1">
-        <v>98.477500000000006</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1331387</v>
+      <c r="B122">
+        <v>3.1987449510256579E-3</v>
+      </c>
+      <c r="C122">
+        <v>-9.1924731279622272E-4</v>
       </c>
       <c r="D122" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E122" s="1">
-        <v>266000</v>
-      </c>
-      <c r="F122" s="1">
-        <v>238.99199999999999</v>
+        <v>263250</v>
+      </c>
+      <c r="F122">
+        <v>3.8306451612902287E-3</v>
       </c>
       <c r="G122">
         <v>99.1</v>
@@ -3216,20 +3236,20 @@
       <c r="A123" s="2">
         <v>42491</v>
       </c>
-      <c r="B123" s="1">
-        <v>98.254900000000006</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1323914</v>
+      <c r="B123">
+        <v>-2.2604148155670068E-3</v>
+      </c>
+      <c r="C123">
+        <v>-5.6129434942657546E-3</v>
       </c>
       <c r="D123" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E123" s="1">
-        <v>274500</v>
-      </c>
-      <c r="F123" s="1">
-        <v>239.55699999999999</v>
+        <v>266000</v>
+      </c>
+      <c r="F123">
+        <v>2.3640958693177919E-3</v>
       </c>
       <c r="G123">
         <v>99.1</v>
@@ -3239,20 +3259,20 @@
       <c r="A124" s="2">
         <v>42522</v>
       </c>
-      <c r="B124" s="1">
-        <v>98.731499999999997</v>
-      </c>
-      <c r="C124" s="1">
-        <v>1331850</v>
+      <c r="B124">
+        <v>4.8506486699390113E-3</v>
+      </c>
+      <c r="C124">
+        <v>5.9943470648395588E-3</v>
       </c>
       <c r="D124" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E124" s="1">
-        <v>265250</v>
-      </c>
-      <c r="F124" s="1">
-        <v>240.22200000000001</v>
+        <v>274500</v>
+      </c>
+      <c r="F124">
+        <v>2.7759572878271999E-3</v>
       </c>
       <c r="G124">
         <v>99.1</v>
@@ -3262,20 +3282,20 @@
       <c r="A125" s="2">
         <v>42552</v>
       </c>
-      <c r="B125" s="1">
-        <v>98.845200000000006</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1330786</v>
+      <c r="B125">
+        <v>1.1516081493749065E-3</v>
+      </c>
+      <c r="C125">
+        <v>-7.9888876374967146E-4</v>
       </c>
       <c r="D125" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E125" s="1">
-        <v>259400</v>
-      </c>
-      <c r="F125" s="1">
-        <v>240.101</v>
+        <v>265250</v>
+      </c>
+      <c r="F125">
+        <v>-5.0370074347898741E-4</v>
       </c>
       <c r="G125">
         <v>99.12</v>
@@ -3285,20 +3305,20 @@
       <c r="A126" s="2">
         <v>42583</v>
       </c>
-      <c r="B126" s="1">
-        <v>98.742699999999999</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1340941</v>
+      <c r="B126">
+        <v>-1.0369749871516902E-3</v>
+      </c>
+      <c r="C126">
+        <v>7.6308286982279643E-3</v>
       </c>
       <c r="D126" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E126" s="1">
-        <v>263500</v>
-      </c>
-      <c r="F126" s="1">
-        <v>240.54499999999999</v>
+        <v>259400</v>
+      </c>
+      <c r="F126">
+        <v>1.8492217858317474E-3</v>
       </c>
       <c r="G126">
         <v>99.17</v>
@@ -3308,20 +3328,20 @@
       <c r="A127" s="2">
         <v>42614</v>
       </c>
-      <c r="B127" s="1">
-        <v>98.655199999999994</v>
-      </c>
-      <c r="C127" s="1">
-        <v>1342844</v>
+      <c r="B127">
+        <v>-8.8614145653304684E-4</v>
+      </c>
+      <c r="C127">
+        <v>1.4191526696551153E-3</v>
       </c>
       <c r="D127" s="1">
         <v>0.05</v>
       </c>
       <c r="E127" s="1">
-        <v>251500</v>
-      </c>
-      <c r="F127" s="1">
-        <v>241.17599999999999</v>
+        <v>263500</v>
+      </c>
+      <c r="F127">
+        <v>2.6232097944251607E-3</v>
       </c>
       <c r="G127">
         <v>99.25</v>
@@ -3331,20 +3351,20 @@
       <c r="A128" s="2">
         <v>42644</v>
       </c>
-      <c r="B128" s="1">
-        <v>98.723699999999994</v>
-      </c>
-      <c r="C128" s="1">
-        <v>1344497</v>
+      <c r="B128">
+        <v>6.9433745002797859E-4</v>
+      </c>
+      <c r="C128">
+        <v>1.2309694945950534E-3</v>
       </c>
       <c r="D128" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E128" s="1">
-        <v>255800</v>
-      </c>
-      <c r="F128" s="1">
-        <v>241.74100000000001</v>
+        <v>250200</v>
+      </c>
+      <c r="F128">
+        <v>2.3426874979269336E-3</v>
       </c>
       <c r="G128">
         <v>99.38</v>
@@ -3354,20 +3374,20 @@
       <c r="A129" s="2">
         <v>42675</v>
       </c>
-      <c r="B129" s="1">
-        <v>98.344300000000004</v>
-      </c>
-      <c r="C129" s="1">
-        <v>1345017</v>
+      <c r="B129">
+        <v>-3.8430488322458516E-3</v>
+      </c>
+      <c r="C129">
+        <v>3.8676174063608919E-4</v>
       </c>
       <c r="D129" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E129" s="1">
-        <v>245750</v>
-      </c>
-      <c r="F129" s="1">
-        <v>242.02600000000001</v>
+        <v>258500</v>
+      </c>
+      <c r="F129">
+        <v>1.178947716771241E-3</v>
       </c>
       <c r="G129">
         <v>99.53</v>
@@ -3377,20 +3397,20 @@
       <c r="A130" s="2">
         <v>42705</v>
       </c>
-      <c r="B130" s="1">
-        <v>99.040599999999998</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1361415</v>
+      <c r="B130">
+        <v>7.0802273238000949E-3</v>
+      </c>
+      <c r="C130">
+        <v>1.219166746591307E-2</v>
       </c>
       <c r="D130" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E130" s="1">
-        <v>252200</v>
-      </c>
-      <c r="F130" s="1">
-        <v>242.637</v>
+        <v>245750</v>
+      </c>
+      <c r="F130">
+        <v>2.5245221587762885E-3</v>
       </c>
       <c r="G130">
         <v>99.68</v>
@@ -3400,20 +3420,20 @@
       <c r="A131" s="2">
         <v>42736</v>
       </c>
-      <c r="B131" s="1">
-        <v>98.815799999999996</v>
-      </c>
-      <c r="C131" s="1">
-        <v>1365202</v>
+      <c r="B131">
+        <v>-2.2697762331811591E-3</v>
+      </c>
+      <c r="C131">
+        <v>2.781664665072737E-3</v>
       </c>
       <c r="D131" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E131" s="1">
-        <v>244000</v>
-      </c>
-      <c r="F131" s="1">
-        <v>243.61799999999999</v>
+        <v>252200</v>
+      </c>
+      <c r="F131">
+        <v>4.0430766948156898E-3</v>
       </c>
       <c r="G131">
         <v>99.8</v>
@@ -3423,20 +3443,20 @@
       <c r="A132" s="2">
         <v>42767</v>
       </c>
-      <c r="B132" s="1">
-        <v>98.435599999999994</v>
-      </c>
-      <c r="C132" s="1">
-        <v>1363025</v>
+      <c r="B132">
+        <v>-3.8475628391411304E-3</v>
+      </c>
+      <c r="C132">
+        <v>-1.594635812136226E-3</v>
       </c>
       <c r="D132" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E132" s="1">
-        <v>230250</v>
-      </c>
-      <c r="F132" s="1">
-        <v>244.006</v>
+        <v>244000</v>
+      </c>
+      <c r="F132">
+        <v>1.5926573570097663E-3</v>
       </c>
       <c r="G132">
         <v>99.88</v>
@@ -3446,20 +3466,20 @@
       <c r="A133" s="2">
         <v>42795</v>
       </c>
-      <c r="B133" s="1">
-        <v>99.049199999999999</v>
-      </c>
-      <c r="C133" s="1">
-        <v>1360169</v>
+      <c r="B133">
+        <v>6.2335171421721951E-3</v>
+      </c>
+      <c r="C133">
+        <v>-2.095339410502375E-3</v>
       </c>
       <c r="D133" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E133" s="1">
-        <v>233750</v>
-      </c>
-      <c r="F133" s="1">
-        <v>243.892</v>
+        <v>230250</v>
+      </c>
+      <c r="F133">
+        <v>-4.6720162618953766E-4</v>
       </c>
       <c r="G133">
         <v>99.92</v>
@@ -3469,20 +3489,20 @@
       <c r="A134" s="2">
         <v>42826</v>
       </c>
-      <c r="B134" s="1">
-        <v>100.0416</v>
-      </c>
-      <c r="C134" s="1">
-        <v>1355381</v>
+      <c r="B134">
+        <v>1.0019263154068923E-2</v>
+      </c>
+      <c r="C134">
+        <v>-3.520150804789699E-3</v>
       </c>
       <c r="D134" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E134" s="1">
-        <v>227800</v>
-      </c>
-      <c r="F134" s="1">
-        <v>244.19300000000001</v>
+        <v>230200</v>
+      </c>
+      <c r="F134">
+        <v>1.2341528217408367E-3</v>
       </c>
       <c r="G134">
         <v>99.94</v>
@@ -3492,20 +3512,20 @@
       <c r="A135" s="2">
         <v>42856</v>
       </c>
-      <c r="B135" s="1">
-        <v>100.128</v>
-      </c>
-      <c r="C135" s="1">
-        <v>1360858</v>
+      <c r="B135">
+        <v>8.6364072545818532E-4</v>
+      </c>
+      <c r="C135">
+        <v>4.0409301886333068E-3</v>
       </c>
       <c r="D135" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E135" s="1">
-        <v>239000</v>
-      </c>
-      <c r="F135" s="1">
-        <v>244.00399999999999</v>
+        <v>230750</v>
+      </c>
+      <c r="F135">
+        <v>-7.7397796005627257E-4</v>
       </c>
       <c r="G135">
         <v>99.94</v>
@@ -3515,20 +3535,20 @@
       <c r="A136" s="2">
         <v>42887</v>
       </c>
-      <c r="B136" s="1">
-        <v>100.337</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1365370</v>
+      <c r="B136">
+        <v>2.0873282198785874E-3</v>
+      </c>
+      <c r="C136">
+        <v>3.3155553334734411E-3</v>
       </c>
       <c r="D136" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E136" s="1">
-        <v>248000</v>
-      </c>
-      <c r="F136" s="1">
-        <v>244.16300000000001</v>
+        <v>239000</v>
+      </c>
+      <c r="F136">
+        <v>6.516286618252989E-4</v>
       </c>
       <c r="G136">
         <v>99.96</v>
@@ -3538,20 +3558,20 @@
       <c r="A137" s="2">
         <v>42917</v>
       </c>
-      <c r="B137" s="1">
-        <v>100.0865</v>
-      </c>
-      <c r="C137" s="1">
-        <v>1370870</v>
+      <c r="B137">
+        <v>-2.4965865034832853E-3</v>
+      </c>
+      <c r="C137">
+        <v>4.0282121329749442E-3</v>
       </c>
       <c r="D137" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E137" s="1">
-        <v>250800</v>
-      </c>
-      <c r="F137" s="1">
-        <v>244.24299999999999</v>
+        <v>249600</v>
+      </c>
+      <c r="F137">
+        <v>3.276499715353435E-4</v>
       </c>
       <c r="G137">
         <v>100</v>
@@ -3561,20 +3581,20 @@
       <c r="A138" s="2">
         <v>42948</v>
       </c>
-      <c r="B138" s="1">
-        <v>99.632300000000001</v>
-      </c>
-      <c r="C138" s="1">
-        <v>1378509</v>
+      <c r="B138">
+        <v>-4.5380745655008436E-3</v>
+      </c>
+      <c r="C138">
+        <v>5.5723737480578026E-3</v>
       </c>
       <c r="D138" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E138" s="1">
-        <v>247750</v>
-      </c>
-      <c r="F138" s="1">
-        <v>245.18299999999999</v>
+        <v>249500</v>
+      </c>
+      <c r="F138">
+        <v>3.8486261632881915E-3</v>
       </c>
       <c r="G138">
         <v>100.07</v>
@@ -3584,20 +3604,20 @@
       <c r="A139" s="2">
         <v>42979</v>
       </c>
-      <c r="B139" s="1">
-        <v>99.748199999999997</v>
-      </c>
-      <c r="C139" s="1">
-        <v>1385196</v>
+      <c r="B139">
+        <v>1.1632773708927359E-3</v>
+      </c>
+      <c r="C139">
+        <v>4.8508932477045854E-3</v>
       </c>
       <c r="D139" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E139" s="1">
-        <v>272400</v>
-      </c>
-      <c r="F139" s="1">
-        <v>246.435</v>
+        <v>247750</v>
+      </c>
+      <c r="F139">
+        <v>5.1063899209978243E-3</v>
       </c>
       <c r="G139">
         <v>100.18</v>
@@ -3607,20 +3627,20 @@
       <c r="A140" s="2">
         <v>43009</v>
       </c>
-      <c r="B140" s="1">
-        <v>100.9893</v>
-      </c>
-      <c r="C140" s="1">
-        <v>1393064</v>
+      <c r="B140">
+        <v>1.244232978640219E-2</v>
+      </c>
+      <c r="C140">
+        <v>5.6800626048588067E-3</v>
       </c>
       <c r="D140" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E140" s="1">
-        <v>242250</v>
-      </c>
-      <c r="F140" s="1">
-        <v>246.626</v>
+        <v>272400</v>
+      </c>
+      <c r="F140">
+        <v>7.7505224501390828E-4</v>
       </c>
       <c r="G140">
         <v>100.31</v>
@@ -3630,20 +3650,20 @@
       <c r="A141" s="2">
         <v>43040</v>
       </c>
-      <c r="B141" s="1">
-        <v>101.24930000000001</v>
-      </c>
-      <c r="C141" s="1">
-        <v>1403474</v>
+      <c r="B141">
+        <v>2.5745301729985762E-3</v>
+      </c>
+      <c r="C141">
+        <v>7.4727363566928729E-3</v>
       </c>
       <c r="D141" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E141" s="1">
-        <v>247750</v>
-      </c>
-      <c r="F141" s="1">
-        <v>247.28399999999999</v>
+        <v>242250</v>
+      </c>
+      <c r="F141">
+        <v>2.6680074282516321E-3</v>
       </c>
       <c r="G141">
         <v>100.44</v>
@@ -3653,20 +3673,20 @@
       <c r="A142" s="2">
         <v>43070</v>
       </c>
-      <c r="B142" s="1">
-        <v>101.4871</v>
-      </c>
-      <c r="C142" s="1">
-        <v>1412747</v>
+      <c r="B142">
+        <v>2.3486582129455995E-3</v>
+      </c>
+      <c r="C142">
+        <v>6.6071761927901764E-3</v>
       </c>
       <c r="D142" s="1">
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="E142" s="1">
-        <v>242600</v>
-      </c>
-      <c r="F142" s="1">
-        <v>247.80500000000001</v>
+        <v>247750</v>
+      </c>
+      <c r="F142">
+        <v>2.1068892447550793E-3</v>
       </c>
       <c r="G142">
         <v>100.57</v>
@@ -3676,20 +3696,20 @@
       <c r="A143" s="2">
         <v>43101</v>
       </c>
-      <c r="B143" s="1">
-        <v>101.48520000000001</v>
-      </c>
-      <c r="C143" s="1">
-        <v>1394188</v>
+      <c r="B143">
+        <v>-1.872159121693318E-5</v>
+      </c>
+      <c r="C143">
+        <v>-1.3136817844950299E-2</v>
       </c>
       <c r="D143" s="1">
         <v>0.04</v>
       </c>
       <c r="E143" s="1">
-        <v>235250</v>
-      </c>
-      <c r="F143" s="1">
-        <v>248.85900000000001</v>
+        <v>242600</v>
+      </c>
+      <c r="F143">
+        <v>4.2533443635116401E-3</v>
       </c>
       <c r="G143">
         <v>100.69</v>
@@ -3699,20 +3719,20 @@
       <c r="A144" s="2">
         <v>43132</v>
       </c>
-      <c r="B144" s="1">
-        <v>101.7319</v>
-      </c>
-      <c r="C144" s="1">
-        <v>1401163</v>
+      <c r="B144">
+        <v>2.4308963277403003E-3</v>
+      </c>
+      <c r="C144">
+        <v>5.0029120893308509E-3</v>
       </c>
       <c r="D144" s="1">
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="E144" s="1">
-        <v>221000</v>
-      </c>
-      <c r="F144" s="1">
-        <v>249.529</v>
+        <v>235250</v>
+      </c>
+      <c r="F144">
+        <v>2.6922876006091299E-3</v>
       </c>
       <c r="G144">
         <v>100.81</v>
@@ -3722,20 +3742,20 @@
       <c r="A145" s="2">
         <v>43160</v>
       </c>
-      <c r="B145" s="1">
-        <v>102.1943</v>
-      </c>
-      <c r="C145" s="1">
-        <v>1398064</v>
+      <c r="B145">
+        <v>4.54528029064632E-3</v>
+      </c>
+      <c r="C145">
+        <v>-2.2117341094505063E-3</v>
       </c>
       <c r="D145" s="1">
         <v>0.04</v>
       </c>
       <c r="E145" s="1">
-        <v>225800</v>
-      </c>
-      <c r="F145" s="1">
-        <v>249.577</v>
+        <v>221000</v>
+      </c>
+      <c r="F145">
+        <v>1.9236241078192043E-4</v>
       </c>
       <c r="G145">
         <v>100.88</v>
@@ -3745,20 +3765,20 @@
       <c r="A146" s="2">
         <v>43191</v>
       </c>
-      <c r="B146" s="1">
-        <v>103.35509999999999</v>
-      </c>
-      <c r="C146" s="1">
-        <v>1398213</v>
+      <c r="B146">
+        <v>1.1358754842491164E-2</v>
+      </c>
+      <c r="C146">
+        <v>1.0657595074331361E-4</v>
       </c>
       <c r="D146" s="1">
         <v>0.04</v>
       </c>
       <c r="E146" s="1">
-        <v>221500</v>
-      </c>
-      <c r="F146" s="1">
-        <v>250.227</v>
+        <v>225800</v>
+      </c>
+      <c r="F146">
+        <v>2.6044066560620797E-3</v>
       </c>
       <c r="G146">
         <v>100.9</v>
@@ -3768,20 +3788,20 @@
       <c r="A147" s="2">
         <v>43221</v>
       </c>
-      <c r="B147" s="1">
-        <v>102.381</v>
-      </c>
-      <c r="C147" s="1">
-        <v>1408616</v>
+      <c r="B147">
+        <v>-9.4247889073687981E-3</v>
+      </c>
+      <c r="C147">
+        <v>7.4402111838468106E-3</v>
       </c>
       <c r="D147" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E147" s="1">
-        <v>221250</v>
-      </c>
-      <c r="F147" s="1">
-        <v>250.792</v>
+        <v>221500</v>
+      </c>
+      <c r="F147">
+        <v>2.2579497815982995E-3</v>
       </c>
       <c r="G147">
         <v>100.88</v>
@@ -3791,20 +3811,20 @@
       <c r="A148" s="2">
         <v>43252</v>
       </c>
-      <c r="B148" s="1">
-        <v>103.2256</v>
-      </c>
-      <c r="C148" s="1">
-        <v>1402036</v>
+      <c r="B148">
+        <v>8.2495775583360173E-3</v>
+      </c>
+      <c r="C148">
+        <v>-4.6712517818908771E-3</v>
       </c>
       <c r="D148" s="1">
         <v>0.04</v>
       </c>
       <c r="E148" s="1">
-        <v>222600</v>
-      </c>
-      <c r="F148" s="1">
-        <v>251.018</v>
+        <v>221250</v>
+      </c>
+      <c r="F148">
+        <v>9.0114517209480001E-4</v>
       </c>
       <c r="G148">
         <v>100.83</v>
@@ -3814,20 +3834,20 @@
       <c r="A149" s="2">
         <v>43282</v>
       </c>
-      <c r="B149" s="1">
-        <v>103.3561</v>
-      </c>
-      <c r="C149" s="1">
-        <v>1405164</v>
+      <c r="B149">
+        <v>1.264221278442536E-3</v>
+      </c>
+      <c r="C149">
+        <v>2.2310411430234317E-3</v>
       </c>
       <c r="D149" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E149" s="1">
-        <v>209500</v>
-      </c>
-      <c r="F149" s="1">
-        <v>251.214</v>
+        <v>222600</v>
+      </c>
+      <c r="F149">
+        <v>7.8082049892835555E-4</v>
       </c>
       <c r="G149">
         <v>100.76</v>
@@ -3837,20 +3857,20 @@
       <c r="A150" s="2">
         <v>43313</v>
       </c>
-      <c r="B150" s="1">
-        <v>104.0585</v>
-      </c>
-      <c r="C150" s="1">
-        <v>1412014</v>
+      <c r="B150">
+        <v>6.7959220597526154E-3</v>
+      </c>
+      <c r="C150">
+        <v>4.8748758152073355E-3</v>
       </c>
       <c r="D150" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E150" s="1">
-        <v>208500</v>
-      </c>
-      <c r="F150" s="1">
-        <v>251.66300000000001</v>
+        <v>209500</v>
+      </c>
+      <c r="F150">
+        <v>1.7873207703392815E-3</v>
       </c>
       <c r="G150">
         <v>100.66</v>
@@ -3860,20 +3880,20 @@
       <c r="A151" s="2">
         <v>43344</v>
       </c>
-      <c r="B151" s="1">
-        <v>104.10380000000001</v>
-      </c>
-      <c r="C151" s="1">
-        <v>1411531</v>
+      <c r="B151">
+        <v>4.3533204879958549E-4</v>
+      </c>
+      <c r="C151">
+        <v>-3.4206459709322994E-4</v>
       </c>
       <c r="D151" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E151" s="1">
-        <v>205200</v>
-      </c>
-      <c r="F151" s="1">
-        <v>252.18199999999999</v>
+        <v>207000</v>
+      </c>
+      <c r="F151">
+        <v>2.0622817021174228E-3</v>
       </c>
       <c r="G151">
         <v>100.52</v>
@@ -3883,20 +3903,20 @@
       <c r="A152" s="2">
         <v>43374</v>
       </c>
-      <c r="B152" s="1">
-        <v>103.9297</v>
-      </c>
-      <c r="C152" s="1">
-        <v>1406996</v>
+      <c r="B152">
+        <v>-1.6723693083250553E-3</v>
+      </c>
+      <c r="C152">
+        <v>-3.2128235228273414E-3</v>
       </c>
       <c r="D152" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E152" s="1">
-        <v>213000</v>
-      </c>
-      <c r="F152" s="1">
-        <v>252.77199999999999</v>
+        <v>206250</v>
+      </c>
+      <c r="F152">
+        <v>2.3395801444988278E-3</v>
       </c>
       <c r="G152">
         <v>100.33</v>
@@ -3906,20 +3926,20 @@
       <c r="A153" s="2">
         <v>43405</v>
       </c>
-      <c r="B153" s="1">
-        <v>104.01260000000001</v>
-      </c>
-      <c r="C153" s="1">
-        <v>1411645</v>
+      <c r="B153">
+        <v>7.9765456842470733E-4</v>
+      </c>
+      <c r="C153">
+        <v>3.3042027127298157E-3</v>
       </c>
       <c r="D153" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E153" s="1">
-        <v>225250</v>
-      </c>
-      <c r="F153" s="1">
-        <v>252.59399999999999</v>
+        <v>213000</v>
+      </c>
+      <c r="F153">
+        <v>-7.041919199911275E-4</v>
       </c>
       <c r="G153">
         <v>100.11</v>
@@ -3929,20 +3949,20 @@
       <c r="A154" s="2">
         <v>43435</v>
       </c>
-      <c r="B154" s="1">
-        <v>104.04510000000001</v>
-      </c>
-      <c r="C154" s="1">
-        <v>1408513</v>
+      <c r="B154">
+        <v>3.1246214400946484E-4</v>
+      </c>
+      <c r="C154">
+        <v>-2.2186881262640395E-3</v>
       </c>
       <c r="D154" s="1">
         <v>3.9E-2</v>
       </c>
       <c r="E154" s="1">
-        <v>224600</v>
-      </c>
-      <c r="F154" s="1">
-        <v>252.767</v>
+        <v>226600</v>
+      </c>
+      <c r="F154">
+        <v>6.8489354458143041E-4</v>
       </c>
       <c r="G154">
         <v>99.89</v>
@@ -3952,11 +3972,11 @@
       <c r="A155" s="2">
         <v>43466</v>
       </c>
-      <c r="B155" s="1">
-        <v>103.35980000000001</v>
-      </c>
-      <c r="C155" s="1">
-        <v>1411462</v>
+      <c r="B155">
+        <v>-6.5865667869029676E-3</v>
+      </c>
+      <c r="C155">
+        <v>2.0936973957641851E-3</v>
       </c>
       <c r="D155" s="1">
         <v>0.04</v>
@@ -3964,8 +3984,8 @@
       <c r="E155" s="1">
         <v>222750</v>
       </c>
-      <c r="F155" s="1">
-        <v>252.56100000000001</v>
+      <c r="F155">
+        <v>-8.1497980353443633E-4</v>
       </c>
       <c r="G155">
         <v>99.68</v>
@@ -3975,20 +3995,20 @@
       <c r="A156" s="2">
         <v>43497</v>
       </c>
-      <c r="B156" s="1">
-        <v>102.82510000000001</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1408768</v>
+      <c r="B156">
+        <v>-5.1731911245958368E-3</v>
+      </c>
+      <c r="C156">
+        <v>-1.9086592483538345E-3</v>
       </c>
       <c r="D156" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E156" s="1">
-        <v>222500</v>
-      </c>
-      <c r="F156" s="1">
-        <v>253.31899999999999</v>
+        <v>222750</v>
+      </c>
+      <c r="F156">
+        <v>3.0012551423219788E-3</v>
       </c>
       <c r="G156">
         <v>99.51</v>
@@ -3998,20 +4018,20 @@
       <c r="A157" s="2">
         <v>43525</v>
       </c>
-      <c r="B157" s="1">
-        <v>102.8361</v>
-      </c>
-      <c r="C157" s="1">
-        <v>1405640</v>
+      <c r="B157">
+        <v>1.0697777099167109E-4</v>
+      </c>
+      <c r="C157">
+        <v>-2.2203797928402689E-3</v>
       </c>
       <c r="D157" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E157" s="1">
-        <v>211800</v>
-      </c>
-      <c r="F157" s="1">
-        <v>254.27699999999999</v>
+        <v>222500</v>
+      </c>
+      <c r="F157">
+        <v>3.7817929172308373E-3</v>
       </c>
       <c r="G157">
         <v>99.37</v>
@@ -4021,20 +4041,20 @@
       <c r="A158" s="2">
         <v>43556</v>
       </c>
-      <c r="B158" s="1">
-        <v>102.2748</v>
-      </c>
-      <c r="C158" s="1">
-        <v>1394958</v>
+      <c r="B158">
+        <v>-5.4581999900813315E-3</v>
+      </c>
+      <c r="C158">
+        <v>-7.5993853333712761E-3</v>
       </c>
       <c r="D158" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E158" s="1">
-        <v>209750</v>
-      </c>
-      <c r="F158" s="1">
-        <v>255.233</v>
+        <v>211800</v>
+      </c>
+      <c r="F158">
+        <v>3.759679404743714E-3</v>
       </c>
       <c r="G158">
         <v>99.24</v>
@@ -4044,20 +4064,20 @@
       <c r="A159" s="2">
         <v>43586</v>
       </c>
-      <c r="B159" s="1">
-        <v>102.41759999999999</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1403604</v>
+      <c r="B159">
+        <v>1.3962383695689852E-3</v>
+      </c>
+      <c r="C159">
+        <v>6.1980360699031801E-3</v>
       </c>
       <c r="D159" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E159" s="1">
-        <v>218500</v>
-      </c>
-      <c r="F159" s="1">
-        <v>255.29599999999999</v>
+        <v>209750</v>
+      </c>
+      <c r="F159">
+        <v>2.4683328566442496E-4</v>
       </c>
       <c r="G159">
         <v>99.12</v>
@@ -4067,20 +4087,20 @@
       <c r="A160" s="2">
         <v>43617</v>
       </c>
-      <c r="B160" s="1">
-        <v>102.5425</v>
-      </c>
-      <c r="C160" s="1">
-        <v>1405269</v>
+      <c r="B160">
+        <v>1.2195169580229463E-3</v>
+      </c>
+      <c r="C160">
+        <v>1.1862320141578394E-3</v>
       </c>
       <c r="D160" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E160" s="1">
-        <v>225200</v>
-      </c>
-      <c r="F160" s="1">
-        <v>255.21299999999999</v>
+        <v>219400</v>
+      </c>
+      <c r="F160">
+        <v>-3.251128102281211E-4</v>
       </c>
       <c r="G160">
         <v>99.01</v>
@@ -4090,20 +4110,20 @@
       <c r="A161" s="2">
         <v>43647</v>
       </c>
-      <c r="B161" s="1">
-        <v>102.0057</v>
-      </c>
-      <c r="C161" s="1">
-        <v>1406165</v>
+      <c r="B161">
+        <v>-5.2349026013604064E-3</v>
+      </c>
+      <c r="C161">
+        <v>6.3760034555661587E-4</v>
       </c>
       <c r="D161" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E161" s="1">
-        <v>208500</v>
-      </c>
-      <c r="F161" s="1">
-        <v>255.80199999999999</v>
+        <v>225750</v>
+      </c>
+      <c r="F161">
+        <v>2.307876166182752E-3</v>
       </c>
       <c r="G161">
         <v>98.93</v>
@@ -4113,20 +4133,20 @@
       <c r="A162" s="2">
         <v>43678</v>
       </c>
-      <c r="B162" s="1">
-        <v>102.7814</v>
-      </c>
-      <c r="C162" s="1">
-        <v>1409855</v>
+      <c r="B162">
+        <v>7.6044770047164079E-3</v>
+      </c>
+      <c r="C162">
+        <v>2.6241586158096668E-3</v>
       </c>
       <c r="D162" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E162" s="1">
-        <v>211000</v>
-      </c>
-      <c r="F162" s="1">
-        <v>256.036</v>
+        <v>208500</v>
+      </c>
+      <c r="F162">
+        <v>9.147700174353949E-4</v>
       </c>
       <c r="G162">
         <v>98.87</v>
@@ -4136,20 +4156,20 @@
       <c r="A163" s="2">
         <v>43709</v>
       </c>
-      <c r="B163" s="1">
-        <v>102.4601</v>
-      </c>
-      <c r="C163" s="1">
-        <v>1405353</v>
+      <c r="B163">
+        <v>-3.126051989951566E-3</v>
+      </c>
+      <c r="C163">
+        <v>-3.1932361838628797E-3</v>
       </c>
       <c r="D163" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E163" s="1">
-        <v>209500</v>
-      </c>
-      <c r="F163" s="1">
-        <v>256.43</v>
+        <v>211000</v>
+      </c>
+      <c r="F163">
+        <v>1.5388460997672415E-3</v>
       </c>
       <c r="G163">
         <v>98.88</v>
@@ -4159,20 +4179,20 @@
       <c r="A164" s="2">
         <v>43739</v>
       </c>
-      <c r="B164" s="1">
-        <v>101.5878</v>
-      </c>
-      <c r="C164" s="1">
-        <v>1389568</v>
+      <c r="B164">
+        <v>-8.5135579606109655E-3</v>
+      </c>
+      <c r="C164">
+        <v>-1.1232053441377362E-2</v>
       </c>
       <c r="D164" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E164" s="1">
-        <v>212250</v>
-      </c>
-      <c r="F164" s="1">
-        <v>257.15499999999997</v>
+        <v>209500</v>
+      </c>
+      <c r="F164">
+        <v>2.8272822992628237E-3</v>
       </c>
       <c r="G164">
         <v>98.93</v>
@@ -4182,20 +4202,20 @@
       <c r="A165" s="2">
         <v>43770</v>
       </c>
-      <c r="B165" s="1">
-        <v>102.1494</v>
-      </c>
-      <c r="C165" s="1">
-        <v>1396759</v>
+      <c r="B165">
+        <v>5.5282228771564943E-3</v>
+      </c>
+      <c r="C165">
+        <v>5.1749896370670593E-3</v>
       </c>
       <c r="D165" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E165" s="1">
-        <v>224400</v>
-      </c>
-      <c r="F165" s="1">
-        <v>257.87900000000002</v>
+        <v>212250</v>
+      </c>
+      <c r="F165">
+        <v>2.8154226050438316E-3</v>
       </c>
       <c r="G165">
         <v>99.01</v>
@@ -4205,20 +4225,20 @@
       <c r="A166" s="2">
         <v>43800</v>
       </c>
-      <c r="B166" s="1">
-        <v>101.9421</v>
-      </c>
-      <c r="C166" s="1">
-        <v>1390886</v>
+      <c r="B166">
+        <v>-2.0293804956270285E-3</v>
+      </c>
+      <c r="C166">
+        <v>-4.2047339591153518E-3</v>
       </c>
       <c r="D166" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E166" s="1">
-        <v>236000</v>
-      </c>
-      <c r="F166" s="1">
-        <v>258.63</v>
+        <v>224400</v>
+      </c>
+      <c r="F166">
+        <v>2.9122185210892562E-3</v>
       </c>
       <c r="G166">
         <v>99.09</v>
@@ -4228,20 +4248,20 @@
       <c r="A167" s="2">
         <v>43831</v>
       </c>
-      <c r="B167" s="1">
-        <v>101.3372</v>
-      </c>
-      <c r="C167" s="1">
-        <v>1389179</v>
+      <c r="B167">
+        <v>-5.933760438523443E-3</v>
+      </c>
+      <c r="C167">
+        <v>-1.227275276334653E-3</v>
       </c>
       <c r="D167" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E167" s="1">
-        <v>215500</v>
-      </c>
-      <c r="F167" s="1">
-        <v>259.12700000000001</v>
+        <v>236000</v>
+      </c>
+      <c r="F167">
+        <v>1.9216641534238646E-3</v>
       </c>
       <c r="G167">
         <v>99.13</v>
@@ -4251,20 +4271,20 @@
       <c r="A168" s="2">
         <v>43862</v>
       </c>
-      <c r="B168" s="1">
-        <v>101.6718</v>
-      </c>
-      <c r="C168" s="1">
-        <v>1395260</v>
+      <c r="B168">
+        <v>3.3018476926539209E-3</v>
+      </c>
+      <c r="C168">
+        <v>4.3774056475083482E-3</v>
       </c>
       <c r="D168" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E168" s="1">
-        <v>210200</v>
-      </c>
-      <c r="F168" s="1">
-        <v>259.25</v>
+        <v>213800</v>
+      </c>
+      <c r="F168">
+        <v>4.7467072130650395E-4</v>
       </c>
       <c r="G168">
         <v>99.09</v>
@@ -4274,20 +4294,20 @@
       <c r="A169" s="2">
         <v>43891</v>
       </c>
-      <c r="B169" s="1">
-        <v>97.605999999999995</v>
-      </c>
-      <c r="C169" s="1">
-        <v>1334425</v>
+      <c r="B169">
+        <v>-3.9989456270076953E-2</v>
+      </c>
+      <c r="C169">
+        <v>-4.360119260926279E-2</v>
       </c>
       <c r="D169" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="E169" s="1">
-        <v>2335250</v>
-      </c>
-      <c r="F169" s="1">
-        <v>258.07600000000002</v>
+        <v>211000</v>
+      </c>
+      <c r="F169">
+        <v>-4.5284474445515073E-3</v>
       </c>
       <c r="G169">
         <v>97.7</v>
@@ -4297,20 +4317,20 @@
       <c r="A170" s="2">
         <v>43922</v>
       </c>
-      <c r="B170" s="1">
-        <v>84.681200000000004</v>
-      </c>
-      <c r="C170" s="1">
-        <v>1183939</v>
+      <c r="B170">
+        <v>-0.13241808905190244</v>
+      </c>
+      <c r="C170">
+        <v>-0.11277216778762389</v>
       </c>
       <c r="D170" s="1">
         <v>0.14800000000000002</v>
       </c>
       <c r="E170" s="1">
-        <v>4663250</v>
-      </c>
-      <c r="F170" s="1">
-        <v>256.03199999999998</v>
+        <v>2335250</v>
+      </c>
+      <c r="F170">
+        <v>-7.9201475534340249E-3</v>
       </c>
       <c r="G170">
         <v>92.81</v>
@@ -4320,20 +4340,20 @@
       <c r="A171" s="2">
         <v>43952</v>
       </c>
-      <c r="B171" s="1">
-        <v>86.010800000000003</v>
-      </c>
-      <c r="C171" s="1">
-        <v>1278041</v>
+      <c r="B171">
+        <v>1.5701241834078866E-2</v>
+      </c>
+      <c r="C171">
+        <v>7.9482135481642208E-2</v>
       </c>
       <c r="D171" s="1">
         <v>0.13200000000000001</v>
       </c>
       <c r="E171" s="1">
-        <v>2173400</v>
-      </c>
-      <c r="F171" s="1">
-        <v>255.80199999999999</v>
+        <v>4663250</v>
+      </c>
+      <c r="F171">
+        <v>-8.9832520934879151E-4</v>
       </c>
       <c r="G171">
         <v>94.35</v>
@@ -4343,20 +4363,20 @@
       <c r="A172" s="2">
         <v>43983</v>
       </c>
-      <c r="B172" s="1">
-        <v>91.674499999999995</v>
-      </c>
-      <c r="C172" s="1">
-        <v>1375409</v>
+      <c r="B172">
+        <v>6.5848707371632301E-2</v>
+      </c>
+      <c r="C172">
+        <v>7.6185349296305827E-2</v>
       </c>
       <c r="D172" s="1">
         <v>0.11</v>
       </c>
       <c r="E172" s="1">
-        <v>1490250</v>
-      </c>
-      <c r="F172" s="1">
-        <v>257.04199999999997</v>
+        <v>2173400</v>
+      </c>
+      <c r="F172">
+        <v>4.8474992376915764E-3</v>
       </c>
       <c r="G172">
         <v>96.16</v>
@@ -4366,20 +4386,20 @@
       <c r="A173" s="2">
         <v>44013</v>
       </c>
-      <c r="B173" s="1">
-        <v>95.003699999999995</v>
-      </c>
-      <c r="C173" s="1">
-        <v>1412258</v>
+      <c r="B173">
+        <v>3.6315442134944836E-2</v>
+      </c>
+      <c r="C173">
+        <v>2.6791303532258403E-2</v>
       </c>
       <c r="D173" s="1">
         <v>0.10199999999999999</v>
       </c>
       <c r="E173" s="1">
-        <v>1383500</v>
-      </c>
-      <c r="F173" s="1">
-        <v>258.35199999999998</v>
+        <v>1490250</v>
+      </c>
+      <c r="F173">
+        <v>5.0964433827934827E-3</v>
       </c>
       <c r="G173">
         <v>97.77</v>
@@ -4389,20 +4409,20 @@
       <c r="A174" s="2">
         <v>44044</v>
       </c>
-      <c r="B174" s="1">
-        <v>95.929400000000001</v>
-      </c>
-      <c r="C174" s="1">
-        <v>1415960</v>
+      <c r="B174">
+        <v>9.7438310297389072E-3</v>
+      </c>
+      <c r="C174">
+        <v>2.6213340621897697E-3</v>
       </c>
       <c r="D174" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E174" s="1">
-        <v>922400</v>
-      </c>
-      <c r="F174" s="1">
-        <v>259.31599999999997</v>
+        <v>1315600</v>
+      </c>
+      <c r="F174">
+        <v>3.7313432835820847E-3</v>
       </c>
       <c r="G174">
         <v>98.46</v>
@@ -4412,20 +4432,20 @@
       <c r="A175" s="2">
         <v>44075</v>
       </c>
-      <c r="B175" s="1">
-        <v>95.891400000000004</v>
-      </c>
-      <c r="C175" s="1">
-        <v>1422028</v>
+      <c r="B175">
+        <v>-3.9612465000298869E-4</v>
+      </c>
+      <c r="C175">
+        <v>4.2854317918585268E-3</v>
       </c>
       <c r="D175" s="1">
         <v>7.8E-2</v>
       </c>
       <c r="E175" s="1">
-        <v>851750</v>
-      </c>
-      <c r="F175" s="1">
-        <v>259.99700000000001</v>
+        <v>892000</v>
+      </c>
+      <c r="F175">
+        <v>2.6261395363187776E-3</v>
       </c>
       <c r="G175">
         <v>98.76</v>
@@ -4435,20 +4455,20 @@
       <c r="A176" s="2">
         <v>44105</v>
       </c>
-      <c r="B176" s="1">
-        <v>96.525599999999997</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1433976</v>
+      <c r="B176">
+        <v>6.6137317840806653E-3</v>
+      </c>
+      <c r="C176">
+        <v>8.4020849097204836E-3</v>
       </c>
       <c r="D176" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="E176" s="1">
-        <v>795400</v>
-      </c>
-      <c r="F176" s="1">
-        <v>260.31900000000002</v>
+        <v>851750</v>
+      </c>
+      <c r="F176">
+        <v>1.2384758285672631E-3</v>
       </c>
       <c r="G176">
         <v>99.13</v>
@@ -4458,20 +4478,20 @@
       <c r="A177" s="2">
         <v>44136</v>
       </c>
-      <c r="B177" s="1">
-        <v>96.9529</v>
-      </c>
-      <c r="C177" s="1">
-        <v>1434160</v>
+      <c r="B177">
+        <v>4.4268049097856161E-3</v>
+      </c>
+      <c r="C177">
+        <v>1.2831456035526396E-4</v>
       </c>
       <c r="D177" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E177" s="1">
-        <v>751250</v>
-      </c>
-      <c r="F177" s="1">
-        <v>260.911</v>
+        <v>795400</v>
+      </c>
+      <c r="F177">
+        <v>2.2741328907993057E-3</v>
       </c>
       <c r="G177">
         <v>99.53</v>
@@ -4481,20 +4501,20 @@
       <c r="A178" s="2">
         <v>44166</v>
       </c>
-      <c r="B178" s="1">
-        <v>98.203900000000004</v>
-      </c>
-      <c r="C178" s="1">
-        <v>1446288</v>
+      <c r="B178">
+        <v>1.2903172571423906E-2</v>
+      </c>
+      <c r="C178">
+        <v>8.4565181011881513E-3</v>
       </c>
       <c r="D178" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E178" s="1">
-        <v>836750</v>
-      </c>
-      <c r="F178" s="1">
-        <v>262.04500000000002</v>
+        <v>751250</v>
+      </c>
+      <c r="F178">
+        <v>4.3463096611488766E-3</v>
       </c>
       <c r="G178">
         <v>99.95</v>
@@ -4504,20 +4524,20 @@
       <c r="A179" s="2">
         <v>44197</v>
       </c>
-      <c r="B179" s="1">
-        <v>98.813500000000005</v>
-      </c>
-      <c r="C179" s="1">
-        <v>1475943</v>
+      <c r="B179">
+        <v>6.2074927777817411E-3</v>
+      </c>
+      <c r="C179">
+        <v>2.050421492814709E-2</v>
       </c>
       <c r="D179" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E179" s="1">
-        <v>827800</v>
-      </c>
-      <c r="F179" s="1">
-        <v>262.63900000000001</v>
+        <v>836750</v>
+      </c>
+      <c r="F179">
+        <v>2.2667862390047286E-3</v>
       </c>
       <c r="G179">
         <v>100.32</v>
@@ -4527,20 +4547,20 @@
       <c r="A180" s="2">
         <v>44228</v>
       </c>
-      <c r="B180" s="1">
-        <v>95.507199999999997</v>
-      </c>
-      <c r="C180" s="1">
-        <v>1432612</v>
+      <c r="B180">
+        <v>-3.346000293482173E-2</v>
+      </c>
+      <c r="C180">
+        <v>-2.9358179821307461E-2</v>
       </c>
       <c r="D180" s="1">
         <v>6.2E-2</v>
       </c>
       <c r="E180" s="1">
-        <v>755000</v>
-      </c>
-      <c r="F180" s="1">
-        <v>263.57299999999998</v>
+        <v>827800</v>
+      </c>
+      <c r="F180">
+        <v>3.5562121390957514E-3</v>
       </c>
       <c r="G180">
         <v>100.7</v>
@@ -4550,20 +4570,20 @@
       <c r="A181" s="2">
         <v>44256</v>
       </c>
-      <c r="B181" s="1">
-        <v>98.192899999999995</v>
-      </c>
-      <c r="C181" s="1">
-        <v>1483563</v>
+      <c r="B181">
+        <v>2.812039301748975E-2</v>
+      </c>
+      <c r="C181">
+        <v>3.5565107649524086E-2</v>
       </c>
       <c r="D181" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E181" s="1">
-        <v>669250</v>
-      </c>
-      <c r="F181" s="1">
-        <v>264.84699999999998</v>
+        <v>755000</v>
+      </c>
+      <c r="F181">
+        <v>4.8335755179779458E-3</v>
       </c>
       <c r="G181">
         <v>101.02</v>
@@ -4573,20 +4593,20 @@
       <c r="A182" s="2">
         <v>44287</v>
       </c>
-      <c r="B182" s="1">
-        <v>98.331699999999998</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1483644</v>
+      <c r="B182">
+        <v>1.4135441564512646E-3</v>
+      </c>
+      <c r="C182">
+        <v>5.4598288040346113E-5</v>
       </c>
       <c r="D182" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E182" s="1">
-        <v>589000</v>
-      </c>
-      <c r="F182" s="1">
-        <v>266.625</v>
+        <v>669250</v>
+      </c>
+      <c r="F182">
+        <v>6.7133099487629464E-3</v>
       </c>
       <c r="G182">
         <v>101.28</v>
@@ -4596,20 +4616,20 @@
       <c r="A183" s="2">
         <v>44317</v>
       </c>
-      <c r="B183" s="1">
-        <v>99.186700000000002</v>
-      </c>
-      <c r="C183" s="1">
-        <v>1452995</v>
+      <c r="B183">
+        <v>8.6950596806523641E-3</v>
+      </c>
+      <c r="C183">
+        <v>-2.0657920633251642E-2</v>
       </c>
       <c r="D183" s="1">
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="E183" s="1">
-        <v>469200</v>
-      </c>
-      <c r="F183" s="1">
-        <v>268.404</v>
+        <v>574600</v>
+      </c>
+      <c r="F183">
+        <v>6.6722925457102537E-3</v>
       </c>
       <c r="G183">
         <v>101.35</v>
@@ -4619,20 +4639,20 @@
       <c r="A184" s="2">
         <v>44348</v>
       </c>
-      <c r="B184" s="1">
-        <v>99.648300000000006</v>
-      </c>
-      <c r="C184" s="1">
-        <v>1456460</v>
+      <c r="B184">
+        <v>4.6538497600989272E-3</v>
+      </c>
+      <c r="C184">
+        <v>2.3847294725721697E-3</v>
       </c>
       <c r="D184" s="1">
         <v>5.9000000000000004E-2</v>
       </c>
       <c r="E184" s="1">
-        <v>409750</v>
-      </c>
-      <c r="F184" s="1">
-        <v>270.70999999999998</v>
+        <v>457250</v>
+      </c>
+      <c r="F184">
+        <v>8.5915262067628763E-3</v>
       </c>
       <c r="G184">
         <v>101.34</v>
@@ -4642,20 +4662,20 @@
       <c r="A185" s="2">
         <v>44378</v>
       </c>
-      <c r="B185" s="1">
-        <v>100.0668</v>
-      </c>
-      <c r="C185" s="1">
-        <v>1460814</v>
+      <c r="B185">
+        <v>4.1997705931761456E-3</v>
+      </c>
+      <c r="C185">
+        <v>2.9894401494033477E-3</v>
       </c>
       <c r="D185" s="1">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="E185" s="1">
-        <v>370000</v>
-      </c>
-      <c r="F185" s="1">
-        <v>271.96499999999997</v>
+        <v>409750</v>
+      </c>
+      <c r="F185">
+        <v>4.6359572974769888E-3</v>
       </c>
       <c r="G185">
         <v>101.29</v>
@@ -4665,20 +4685,20 @@
       <c r="A186" s="2">
         <v>44409</v>
       </c>
-      <c r="B186" s="1">
-        <v>100.0412</v>
-      </c>
-      <c r="C186" s="1">
-        <v>1451881</v>
+      <c r="B186">
+        <v>-2.558291061570589E-4</v>
+      </c>
+      <c r="C186">
+        <v>-6.1150837820557582E-3</v>
       </c>
       <c r="D186" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E186" s="1">
-        <v>360000</v>
-      </c>
-      <c r="F186" s="1">
-        <v>272.75200000000001</v>
+        <v>370000</v>
+      </c>
+      <c r="F186">
+        <v>2.893754711084274E-3</v>
       </c>
       <c r="G186">
         <v>101.22</v>
@@ -4688,20 +4708,20 @@
       <c r="A187" s="2">
         <v>44440</v>
       </c>
-      <c r="B187" s="1">
-        <v>98.995500000000007</v>
-      </c>
-      <c r="C187" s="1">
-        <v>1457056</v>
+      <c r="B187">
+        <v>-1.0452693490281969E-2</v>
+      </c>
+      <c r="C187">
+        <v>3.5643417056907558E-3</v>
       </c>
       <c r="D187" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="E187" s="1">
-        <v>355500</v>
-      </c>
-      <c r="F187" s="1">
-        <v>273.94200000000001</v>
+        <v>360000</v>
+      </c>
+      <c r="F187">
+        <v>4.3629377603097231E-3</v>
       </c>
       <c r="G187">
         <v>101.16</v>
@@ -4711,20 +4731,20 @@
       <c r="A188" s="2">
         <v>44470</v>
       </c>
-      <c r="B188" s="1">
-        <v>100.35420000000001</v>
-      </c>
-      <c r="C188" s="1">
-        <v>1466041</v>
+      <c r="B188">
+        <v>1.3724866281800675E-2</v>
+      </c>
+      <c r="C188">
+        <v>6.1665440449783678E-3</v>
       </c>
       <c r="D188" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E188" s="1">
-        <v>284800</v>
-      </c>
-      <c r="F188" s="1">
-        <v>276.52800000000002</v>
+        <v>355500</v>
+      </c>
+      <c r="F188">
+        <v>9.4399544429113191E-3</v>
       </c>
       <c r="G188">
         <v>101.12</v>
@@ -4734,20 +4754,20 @@
       <c r="A189" s="2">
         <v>44501</v>
       </c>
-      <c r="B189" s="1">
-        <v>101.2684</v>
-      </c>
-      <c r="C189" s="1">
-        <v>1470553</v>
+      <c r="B189">
+        <v>9.1097333245643321E-3</v>
+      </c>
+      <c r="C189">
+        <v>3.0776765451989404E-3</v>
       </c>
       <c r="D189" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E189" s="1">
-        <v>236500</v>
-      </c>
-      <c r="F189" s="1">
-        <v>278.82400000000001</v>
+        <v>284800</v>
+      </c>
+      <c r="F189">
+        <v>8.3029566626164151E-3</v>
       </c>
       <c r="G189">
         <v>101.08</v>
@@ -4757,20 +4777,20 @@
       <c r="A190" s="2">
         <v>44531</v>
       </c>
-      <c r="B190" s="1">
-        <v>101.1948</v>
-      </c>
-      <c r="C190" s="1">
-        <v>1468043</v>
+      <c r="B190">
+        <v>-7.2678150341072827E-4</v>
+      </c>
+      <c r="C190">
+        <v>-1.706840895907866E-3</v>
       </c>
       <c r="D190" s="1">
         <v>3.9E-2</v>
       </c>
       <c r="E190" s="1">
-        <v>216250</v>
-      </c>
-      <c r="F190" s="1">
-        <v>280.80599999999998</v>
+        <v>236500</v>
+      </c>
+      <c r="F190">
+        <v>7.1084268212204503E-3</v>
       </c>
       <c r="G190">
         <v>101.03</v>
@@ -4780,20 +4800,20 @@
       <c r="A191" s="2">
         <v>44562</v>
       </c>
-      <c r="B191" s="1">
-        <v>101.2146</v>
-      </c>
-      <c r="C191" s="1">
-        <v>1487693</v>
+      <c r="B191">
+        <v>1.9566222770343527E-4</v>
+      </c>
+      <c r="C191">
+        <v>1.3385166510790216E-2</v>
       </c>
       <c r="D191" s="1">
         <v>0.04</v>
       </c>
       <c r="E191" s="1">
-        <v>237600</v>
-      </c>
-      <c r="F191" s="1">
-        <v>282.54199999999997</v>
+        <v>218400</v>
+      </c>
+      <c r="F191">
+        <v>6.1822040839582849E-3</v>
       </c>
       <c r="G191">
         <v>100.94</v>
@@ -4803,20 +4823,20 @@
       <c r="A192" s="2">
         <v>44593</v>
       </c>
-      <c r="B192" s="1">
-        <v>101.8458</v>
-      </c>
-      <c r="C192" s="1">
-        <v>1476359</v>
+      <c r="B192">
+        <v>6.2362544534088227E-3</v>
+      </c>
+      <c r="C192">
+        <v>-7.618507313000733E-3</v>
       </c>
       <c r="D192" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E192" s="1">
-        <v>219500</v>
-      </c>
-      <c r="F192" s="1">
-        <v>284.52499999999998</v>
+        <v>240250</v>
+      </c>
+      <c r="F192">
+        <v>7.0184255792059384E-3</v>
       </c>
       <c r="G192">
         <v>100.8</v>
@@ -4826,20 +4846,20 @@
       <c r="A193" s="2">
         <v>44621</v>
       </c>
-      <c r="B193" s="1">
-        <v>102.67319999999999</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1470152</v>
+      <c r="B193">
+        <v>8.124046352426877E-3</v>
+      </c>
+      <c r="C193">
+        <v>-4.2042619715123488E-3</v>
       </c>
       <c r="D193" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E193" s="1">
-        <v>215000</v>
-      </c>
-      <c r="F193" s="1">
-        <v>287.46699999999998</v>
+        <v>219500</v>
+      </c>
+      <c r="F193">
+        <v>1.0340040418240954E-2</v>
       </c>
       <c r="G193">
         <v>100.6</v>
@@ -4849,20 +4869,20 @@
       <c r="A194" s="2">
         <v>44652</v>
       </c>
-      <c r="B194" s="1">
-        <v>102.9024</v>
-      </c>
-      <c r="C194" s="1">
-        <v>1469036</v>
+      <c r="B194">
+        <v>2.2323254753918828E-3</v>
+      </c>
+      <c r="C194">
+        <v>-7.5910518096088022E-4</v>
       </c>
       <c r="D194" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E194" s="1">
-        <v>213200</v>
-      </c>
-      <c r="F194" s="1">
-        <v>288.58199999999999</v>
+        <v>215000</v>
+      </c>
+      <c r="F194">
+        <v>3.8787060775671961E-3</v>
       </c>
       <c r="G194">
         <v>100.34</v>
@@ -4872,20 +4892,20 @@
       <c r="A195" s="2">
         <v>44682</v>
       </c>
-      <c r="B195" s="1">
-        <v>102.9659</v>
-      </c>
-      <c r="C195" s="1">
-        <v>1448721</v>
+      <c r="B195">
+        <v>6.1708959169081356E-4</v>
+      </c>
+      <c r="C195">
+        <v>-1.3828796571356999E-2</v>
       </c>
       <c r="D195" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E195" s="1">
-        <v>210000</v>
-      </c>
-      <c r="F195" s="1">
-        <v>291.29899999999998</v>
+        <v>213200</v>
+      </c>
+      <c r="F195">
+        <v>9.4150016286531548E-3</v>
       </c>
       <c r="G195">
         <v>100.03</v>
@@ -4895,20 +4915,20 @@
       <c r="A196" s="2">
         <v>44713</v>
       </c>
-      <c r="B196" s="1">
-        <v>102.8224</v>
-      </c>
-      <c r="C196" s="1">
-        <v>1443651</v>
+      <c r="B196">
+        <v>-1.3936652814184412E-3</v>
+      </c>
+      <c r="C196">
+        <v>-3.4996386467787792E-3</v>
       </c>
       <c r="D196" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E196" s="1">
-        <v>213500</v>
-      </c>
-      <c r="F196" s="1">
-        <v>295.072</v>
+        <v>210000</v>
+      </c>
+      <c r="F196">
+        <v>1.295232733377054E-2</v>
       </c>
       <c r="G196">
         <v>99.7</v>
@@ -4918,20 +4938,20 @@
       <c r="A197" s="2">
         <v>44743</v>
       </c>
-      <c r="B197" s="1">
-        <v>103.0505</v>
-      </c>
-      <c r="C197" s="1">
-        <v>1450643</v>
+      <c r="B197">
+        <v>2.2183882111290703E-3</v>
+      </c>
+      <c r="C197">
+        <v>4.8432758332865771E-3</v>
       </c>
       <c r="D197" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E197" s="1">
-        <v>218200</v>
-      </c>
-      <c r="F197" s="1">
-        <v>294.94</v>
+        <v>213500</v>
+      </c>
+      <c r="F197">
+        <v>-4.4734844376967316E-4</v>
       </c>
       <c r="G197">
         <v>99.43</v>
@@ -4941,20 +4961,20 @@
       <c r="A198" s="2">
         <v>44774</v>
       </c>
-      <c r="B198" s="1">
-        <v>103.1703</v>
-      </c>
-      <c r="C198" s="1">
-        <v>1469845</v>
+      <c r="B198">
+        <v>1.1625368144744365E-3</v>
+      </c>
+      <c r="C198">
+        <v>1.3236888745197819E-2</v>
       </c>
       <c r="D198" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E198" s="1">
-        <v>216500</v>
-      </c>
-      <c r="F198" s="1">
-        <v>295.16199999999998</v>
+        <v>218200</v>
+      </c>
+      <c r="F198">
+        <v>7.5269546348403062E-4</v>
       </c>
       <c r="G198">
         <v>99.21</v>
@@ -4964,20 +4984,20 @@
       <c r="A199" s="2">
         <v>44805</v>
       </c>
-      <c r="B199" s="1">
-        <v>103.5326</v>
-      </c>
-      <c r="C199" s="1">
-        <v>1465435</v>
+      <c r="B199">
+        <v>3.5116695405558065E-3</v>
+      </c>
+      <c r="C199">
+        <v>-3.0003163598882874E-3</v>
       </c>
       <c r="D199" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E199" s="1">
-        <v>197750</v>
-      </c>
-      <c r="F199" s="1">
-        <v>296.42099999999999</v>
+        <v>216500</v>
+      </c>
+      <c r="F199">
+        <v>4.2654542251374314E-3</v>
       </c>
       <c r="G199">
         <v>99.04</v>
@@ -4987,20 +5007,20 @@
       <c r="A200" s="2">
         <v>44835</v>
       </c>
-      <c r="B200" s="1">
-        <v>103.4442</v>
-      </c>
-      <c r="C200" s="1">
-        <v>1470144</v>
+      <c r="B200">
+        <v>-8.5383734205464891E-4</v>
+      </c>
+      <c r="C200">
+        <v>3.2133803273430754E-3</v>
       </c>
       <c r="D200" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E200" s="1">
-        <v>202400</v>
-      </c>
-      <c r="F200" s="1">
-        <v>297.97899999999998</v>
+        <v>199000</v>
+      </c>
+      <c r="F200">
+        <v>5.2560378650635172E-3</v>
       </c>
       <c r="G200">
         <v>98.91</v>
@@ -5010,20 +5030,20 @@
       <c r="A201" s="2">
         <v>44866</v>
       </c>
-      <c r="B201" s="1">
-        <v>103.1058</v>
-      </c>
-      <c r="C201" s="1">
-        <v>1456356</v>
+      <c r="B201">
+        <v>-3.2713288903582121E-3</v>
+      </c>
+      <c r="C201">
+        <v>-9.3786731095729398E-3</v>
       </c>
       <c r="D201" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E201" s="1">
-        <v>210750</v>
-      </c>
-      <c r="F201" s="1">
-        <v>298.70800000000003</v>
+        <v>202000</v>
+      </c>
+      <c r="F201">
+        <v>2.4464811278648558E-3</v>
       </c>
       <c r="G201">
         <v>98.81</v>
@@ -5033,20 +5053,20 @@
       <c r="A202" s="2">
         <v>44896</v>
       </c>
-      <c r="B202" s="1">
-        <v>101.8266</v>
-      </c>
-      <c r="C202" s="1">
-        <v>1471197</v>
+      <c r="B202">
+        <v>-1.2406673533399701E-2</v>
+      </c>
+      <c r="C202">
+        <v>1.0190502871550638E-2</v>
       </c>
       <c r="D202" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E202" s="1">
-        <v>208000</v>
-      </c>
-      <c r="F202" s="1">
-        <v>298.80799999999999</v>
+        <v>210750</v>
+      </c>
+      <c r="F202">
+        <v>3.3477509808898951E-4</v>
       </c>
       <c r="G202">
         <v>98.74</v>
@@ -5056,20 +5076,20 @@
       <c r="A203" s="2">
         <v>44927</v>
       </c>
-      <c r="B203" s="1">
-        <v>102.74760000000001</v>
-      </c>
-      <c r="C203" s="1">
-        <v>1490564</v>
+      <c r="B203">
+        <v>9.0447879041429882E-3</v>
+      </c>
+      <c r="C203">
+        <v>1.3164110584782323E-2</v>
       </c>
       <c r="D203" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E203" s="1">
-        <v>203500</v>
-      </c>
-      <c r="F203" s="1">
-        <v>300.45600000000002</v>
+        <v>208000</v>
+      </c>
+      <c r="F203">
+        <v>5.5152472490697189E-3</v>
       </c>
       <c r="G203">
         <v>98.7</v>
@@ -5079,20 +5099,20 @@
       <c r="A204" s="2">
         <v>44958</v>
       </c>
-      <c r="B204" s="1">
-        <v>102.80029999999999</v>
-      </c>
-      <c r="C204" s="1">
-        <v>1479479</v>
+      <c r="B204">
+        <v>5.1290735744666846E-4</v>
+      </c>
+      <c r="C204">
+        <v>-7.4367823186391189E-3</v>
       </c>
       <c r="D204" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E204" s="1">
-        <v>215000</v>
-      </c>
-      <c r="F204" s="1">
-        <v>301.476</v>
+        <v>203500</v>
+      </c>
+      <c r="F204">
+        <v>3.3948398434379135E-3</v>
       </c>
       <c r="G204">
         <v>98.67</v>
@@ -5102,20 +5122,20 @@
       <c r="A205" s="2">
         <v>44986</v>
       </c>
-      <c r="B205" s="1">
-        <v>102.8143</v>
-      </c>
-      <c r="C205" s="1">
-        <v>1466835</v>
+      <c r="B205">
+        <v>1.361863729970633E-4</v>
+      </c>
+      <c r="C205">
+        <v>-8.5462517548407241E-3</v>
       </c>
       <c r="D205" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E205" s="1">
-        <v>228750</v>
-      </c>
-      <c r="F205" s="1">
-        <v>301.64299999999997</v>
+        <v>215000</v>
+      </c>
+      <c r="F205">
+        <v>5.5394127559067112E-4</v>
       </c>
       <c r="G205">
         <v>98.66</v>
@@ -5125,20 +5145,20 @@
       <c r="A206" s="2">
         <v>45017</v>
       </c>
-      <c r="B206" s="1">
-        <v>103.22410000000001</v>
-      </c>
-      <c r="C206" s="1">
-        <v>1465398</v>
+      <c r="B206">
+        <v>3.985826874277257E-3</v>
+      </c>
+      <c r="C206">
+        <v>-9.796602889895591E-4</v>
       </c>
       <c r="D206" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E206" s="1">
-        <v>216600</v>
-      </c>
-      <c r="F206" s="1">
-        <v>302.858</v>
+        <v>226400</v>
+      </c>
+      <c r="F206">
+        <v>4.0279403135495663E-3</v>
       </c>
       <c r="G206">
         <v>98.69</v>
@@ -5148,20 +5168,20 @@
       <c r="A207" s="2">
         <v>45047</v>
       </c>
-      <c r="B207" s="1">
-        <v>102.98090000000001</v>
-      </c>
-      <c r="C207" s="1">
-        <v>1479070</v>
+      <c r="B207">
+        <v>-2.3560389482688792E-3</v>
+      </c>
+      <c r="C207">
+        <v>9.3298885354013046E-3</v>
       </c>
       <c r="D207" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E207" s="1">
-        <v>226250</v>
-      </c>
-      <c r="F207" s="1">
-        <v>303.31599999999997</v>
+        <v>216500</v>
+      </c>
+      <c r="F207">
+        <v>1.5122598709625301E-3</v>
       </c>
       <c r="G207">
         <v>98.75</v>
@@ -5171,20 +5191,20 @@
       <c r="A208" s="2">
         <v>45078</v>
       </c>
-      <c r="B208" s="1">
-        <v>102.3809</v>
-      </c>
-      <c r="C208" s="1">
-        <v>1475131</v>
+      <c r="B208">
+        <v>-5.8263231337074006E-3</v>
+      </c>
+      <c r="C208">
+        <v>-2.6631599586226479E-3</v>
       </c>
       <c r="D208" s="1">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="E208" s="1">
-        <v>251750</v>
-      </c>
-      <c r="F208" s="1">
-        <v>304.09899999999999</v>
+        <v>226250</v>
+      </c>
+      <c r="F208">
+        <v>2.5814661936726566E-3</v>
       </c>
       <c r="G208">
         <v>98.84</v>
@@ -5194,20 +5214,20 @@
       <c r="A209" s="2">
         <v>45108</v>
       </c>
-      <c r="B209" s="1">
-        <v>103.0722</v>
-      </c>
-      <c r="C209" s="1">
-        <v>1489088</v>
+      <c r="B209">
+        <v>6.7522360127718964E-3</v>
+      </c>
+      <c r="C209">
+        <v>9.4615325689718401E-3</v>
       </c>
       <c r="D209" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E209" s="1">
-        <v>234800</v>
-      </c>
-      <c r="F209" s="1">
-        <v>304.61500000000001</v>
+        <v>251000</v>
+      </c>
+      <c r="F209">
+        <v>1.6968158395786227E-3</v>
       </c>
       <c r="G209">
         <v>98.92</v>
@@ -5217,20 +5237,20 @@
       <c r="A210" s="2">
         <v>45139</v>
       </c>
-      <c r="B210" s="1">
-        <v>103.0951</v>
-      </c>
-      <c r="C210" s="1">
-        <v>1486896</v>
+      <c r="B210">
+        <v>2.2217435933265253E-4</v>
+      </c>
+      <c r="C210">
+        <v>-1.472041947823097E-3</v>
       </c>
       <c r="D210" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E210" s="1">
-        <v>245000</v>
-      </c>
-      <c r="F210" s="1">
-        <v>306.13799999999998</v>
+        <v>231500</v>
+      </c>
+      <c r="F210">
+        <v>4.9997537875678079E-3</v>
       </c>
       <c r="G210">
         <v>98.99</v>
@@ -5240,20 +5260,20 @@
       <c r="A211" s="2">
         <v>45170</v>
       </c>
-      <c r="B211" s="1">
-        <v>103.3081</v>
-      </c>
-      <c r="C211" s="1">
-        <v>1494782</v>
+      <c r="B211">
+        <v>2.0660535757760926E-3</v>
+      </c>
+      <c r="C211">
+        <v>5.303666160915088E-3</v>
       </c>
       <c r="D211" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E211" s="1">
-        <v>219000</v>
-      </c>
-      <c r="F211" s="1">
-        <v>307.37400000000002</v>
+        <v>245000</v>
+      </c>
+      <c r="F211">
+        <v>4.0373949003392161E-3</v>
       </c>
       <c r="G211">
         <v>99.03</v>
@@ -5263,20 +5283,20 @@
       <c r="A212" s="2">
         <v>45200</v>
       </c>
-      <c r="B212" s="1">
-        <v>102.57810000000001</v>
-      </c>
-      <c r="C212" s="1">
-        <v>1495171</v>
+      <c r="B212">
+        <v>-7.0662416596567919E-3</v>
+      </c>
+      <c r="C212">
+        <v>2.6023861673474795E-4</v>
       </c>
       <c r="D212" s="1">
         <v>3.9E-2</v>
       </c>
       <c r="E212" s="1">
-        <v>210250</v>
-      </c>
-      <c r="F212" s="1">
-        <v>307.65300000000002</v>
+        <v>219000</v>
+      </c>
+      <c r="F212">
+        <v>9.0768900427491055E-4</v>
       </c>
       <c r="G212">
         <v>99.06</v>
@@ -5286,20 +5306,20 @@
       <c r="A213" s="2">
         <v>45231</v>
       </c>
-      <c r="B213" s="1">
-        <v>102.88679999999999</v>
-      </c>
-      <c r="C213" s="1">
-        <v>1505172</v>
+      <c r="B213">
+        <v>3.0094142901846252E-3</v>
+      </c>
+      <c r="C213">
+        <v>6.6888670259120861E-3</v>
       </c>
       <c r="D213" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E213" s="1">
-        <v>218000</v>
-      </c>
-      <c r="F213" s="1">
-        <v>308.08699999999999</v>
+        <v>210250</v>
+      </c>
+      <c r="F213">
+        <v>1.4106802143972886E-3</v>
       </c>
       <c r="G213">
         <v>99.12</v>
@@ -5309,20 +5329,20 @@
       <c r="A214" s="2">
         <v>45261</v>
       </c>
-      <c r="B214" s="1">
-        <v>102.6309</v>
-      </c>
-      <c r="C214" s="1">
-        <v>1516894</v>
+      <c r="B214">
+        <v>-2.4871995241371771E-3</v>
+      </c>
+      <c r="C214">
+        <v>7.7878142830188181E-3</v>
       </c>
       <c r="D214" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E214" s="1">
-        <v>207400</v>
-      </c>
-      <c r="F214" s="1">
-        <v>308.73500000000001</v>
+        <v>218000</v>
+      </c>
+      <c r="F214">
+        <v>2.1033019893732115E-3</v>
       </c>
       <c r="G214">
         <v>99.22</v>
@@ -5332,20 +5352,20 @@
       <c r="A215" s="2">
         <v>45292</v>
       </c>
-      <c r="B215" s="1">
-        <v>101.483</v>
-      </c>
-      <c r="C215" s="1">
-        <v>1501571</v>
+      <c r="B215">
+        <v>-1.1184740658027874E-2</v>
+      </c>
+      <c r="C215">
+        <v>-1.010156279871896E-2</v>
       </c>
       <c r="D215" s="1">
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="E215" s="1">
-        <v>210000</v>
-      </c>
-      <c r="F215" s="1">
-        <v>309.79399999999998</v>
+        <v>207400</v>
+      </c>
+      <c r="F215">
+        <v>3.4301261599752829E-3</v>
       </c>
       <c r="G215">
         <v>99.36</v>
@@ -5355,20 +5375,20 @@
       <c r="A216" s="2">
         <v>45323</v>
       </c>
-      <c r="B216" s="1">
-        <v>102.72669999999999</v>
-      </c>
-      <c r="C216" s="1">
-        <v>1508218</v>
+      <c r="B216">
+        <v>1.2255254574657724E-2</v>
+      </c>
+      <c r="C216">
+        <v>4.4266971058977561E-3</v>
       </c>
       <c r="D216" s="1">
         <v>3.9E-2</v>
       </c>
       <c r="E216" s="1">
-        <v>210750</v>
-      </c>
-      <c r="F216" s="1">
-        <v>311.02199999999999</v>
+        <v>210000</v>
+      </c>
+      <c r="F216">
+        <v>3.9639244142882328E-3</v>
       </c>
       <c r="G216">
         <v>99.5</v>
@@ -5378,20 +5398,20 @@
       <c r="A217" s="2">
         <v>45352</v>
       </c>
-      <c r="B217" s="1">
-        <v>102.51860000000001</v>
-      </c>
-      <c r="C217" s="1">
-        <v>1506005</v>
+      <c r="B217">
+        <v>-2.0257635064689855E-3</v>
+      </c>
+      <c r="C217">
+        <v>-1.4672945157795491E-3</v>
       </c>
       <c r="D217" s="1">
         <v>3.9E-2</v>
       </c>
       <c r="E217" s="1">
-        <v>215000</v>
-      </c>
-      <c r="F217" s="1">
-        <v>312.10700000000003</v>
+        <v>210750</v>
+      </c>
+      <c r="F217">
+        <v>3.4884992058440765E-3</v>
       </c>
       <c r="G217">
         <v>99.62</v>
@@ -5401,20 +5421,20 @@
       <c r="A218" s="2">
         <v>45383</v>
       </c>
-      <c r="B218" s="1">
-        <v>102.35680000000001</v>
-      </c>
-      <c r="C218" s="1">
-        <v>1502289</v>
+      <c r="B218">
+        <v>-1.5782501906970979E-3</v>
+      </c>
+      <c r="C218">
+        <v>-2.4674552873330436E-3</v>
       </c>
       <c r="D218" s="1">
         <v>3.9E-2</v>
       </c>
       <c r="E218" s="1">
-        <v>210250</v>
-      </c>
-      <c r="F218" s="1">
-        <v>313.01600000000002</v>
+        <v>215000</v>
+      </c>
+      <c r="F218">
+        <v>2.9124627131079783E-3</v>
       </c>
       <c r="G218">
         <v>99.69</v>
@@ -5424,20 +5444,20 @@
       <c r="A219" s="2">
         <v>45413</v>
       </c>
-      <c r="B219" s="1">
-        <v>102.97969999999999</v>
-      </c>
-      <c r="C219" s="1">
-        <v>1511598</v>
+      <c r="B219">
+        <v>6.0855751645224072E-3</v>
+      </c>
+      <c r="C219">
+        <v>6.1965440737434671E-3</v>
       </c>
       <c r="D219" s="1">
         <v>0.04</v>
       </c>
       <c r="E219" s="1">
-        <v>222000</v>
-      </c>
-      <c r="F219" s="1">
-        <v>313.14</v>
+        <v>210250</v>
+      </c>
+      <c r="F219">
+        <v>3.9614588391637101E-4</v>
       </c>
       <c r="G219">
         <v>99.72</v>
@@ -5447,20 +5467,20 @@
       <c r="A220" s="2">
         <v>45444</v>
       </c>
-      <c r="B220" s="1">
-        <v>103.2534</v>
-      </c>
-      <c r="C220" s="1">
-        <v>1518826</v>
+      <c r="B220">
+        <v>2.6578053732920679E-3</v>
+      </c>
+      <c r="C220">
+        <v>4.7816946039886269E-3</v>
       </c>
       <c r="D220" s="1">
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="E220" s="1">
-        <v>235600</v>
-      </c>
-      <c r="F220" s="1">
-        <v>313.13099999999997</v>
+        <v>223400</v>
+      </c>
+      <c r="F220">
+        <v>-2.8741138149117175E-5</v>
       </c>
       <c r="G220">
         <v>99.74</v>
@@ -5470,20 +5490,20 @@
       <c r="A221" s="2">
         <v>45474</v>
       </c>
-      <c r="B221" s="1">
-        <v>102.5192</v>
-      </c>
-      <c r="C221" s="1">
-        <v>1529744</v>
+      <c r="B221">
+        <v>-7.1106617312359814E-3</v>
+      </c>
+      <c r="C221">
+        <v>7.1884468661979712E-3</v>
       </c>
       <c r="D221" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E221" s="1">
-        <v>236500</v>
-      </c>
-      <c r="F221" s="1">
-        <v>313.56599999999997</v>
+        <v>237250</v>
+      </c>
+      <c r="F221">
+        <v>1.3891949375820418E-3</v>
       </c>
       <c r="G221">
         <v>99.79</v>
@@ -5493,20 +5513,20 @@
       <c r="A222" s="2">
         <v>45505</v>
       </c>
-      <c r="B222" s="1">
-        <v>103.0196</v>
-      </c>
-      <c r="C222" s="1">
-        <v>1530317</v>
+      <c r="B222">
+        <v>4.8810369179626747E-3</v>
+      </c>
+      <c r="C222">
+        <v>3.7457247748642908E-4</v>
       </c>
       <c r="D222" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E222" s="1">
-        <v>230800</v>
-      </c>
-      <c r="F222" s="1">
-        <v>314.13099999999997</v>
+        <v>236500</v>
+      </c>
+      <c r="F222">
+        <v>1.801853517281841E-3</v>
       </c>
       <c r="G222">
         <v>99.9</v>
@@ -5516,20 +5536,20 @@
       <c r="A223" s="2">
         <v>45536</v>
       </c>
-      <c r="B223" s="1">
-        <v>102.5954</v>
-      </c>
-      <c r="C223" s="1">
-        <v>1541305</v>
+      <c r="B223">
+        <v>-4.117663046643542E-3</v>
+      </c>
+      <c r="C223">
+        <v>7.1802116816319754E-3</v>
       </c>
       <c r="D223" s="1">
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="E223" s="1">
-        <v>225000</v>
-      </c>
-      <c r="F223" s="1">
-        <v>314.851</v>
+        <v>230800</v>
+      </c>
+      <c r="F223">
+        <v>2.2920373984103046E-3</v>
       </c>
       <c r="G223">
         <v>100.05</v>
@@ -5539,20 +5559,20 @@
       <c r="A224" s="2">
         <v>45566</v>
       </c>
-      <c r="B224" s="1">
-        <v>102.21380000000001</v>
-      </c>
-      <c r="C224" s="1">
-        <v>1538457</v>
+      <c r="B224">
+        <v>-3.7194650052535662E-3</v>
+      </c>
+      <c r="C224">
+        <v>-1.8477848316848385E-3</v>
       </c>
       <c r="D224" s="1">
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="E224" s="1">
-        <v>236250</v>
-      </c>
-      <c r="F224" s="1">
-        <v>315.56400000000002</v>
+        <v>225000</v>
+      </c>
+      <c r="F224">
+        <v>2.2645632378490849E-3</v>
       </c>
       <c r="G224">
         <v>100.23</v>
@@ -5562,20 +5582,20 @@
       <c r="A225" s="2">
         <v>45597</v>
       </c>
-      <c r="B225" s="1">
-        <v>101.9619</v>
-      </c>
-      <c r="C225" s="1">
-        <v>1545040</v>
+      <c r="B225">
+        <v>-2.4644421790404642E-3</v>
+      </c>
+      <c r="C225">
+        <v>4.2789626229397379E-3</v>
       </c>
       <c r="D225" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E225" s="1">
-        <v>219400</v>
-      </c>
-      <c r="F225" s="1">
-        <v>316.44900000000001</v>
+        <v>236250</v>
+      </c>
+      <c r="F225">
+        <v>2.804502414724084E-3</v>
       </c>
       <c r="G225">
         <v>100.41</v>
@@ -5585,20 +5605,20 @@
       <c r="A226" s="2">
         <v>45627</v>
       </c>
-      <c r="B226" s="1">
-        <v>103.1177</v>
-      </c>
-      <c r="C226" s="1">
-        <v>1558008</v>
+      <c r="B226">
+        <v>1.1335606731534026E-2</v>
+      </c>
+      <c r="C226">
+        <v>8.3933102055610206E-3</v>
       </c>
       <c r="D226" s="1">
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="E226" s="1">
-        <v>222250</v>
-      </c>
-      <c r="F226" s="1">
-        <v>317.60300000000001</v>
+        <v>219400</v>
+      </c>
+      <c r="F226">
+        <v>3.64671716453519E-3</v>
       </c>
       <c r="G226">
         <v>100.55</v>
@@ -5608,20 +5628,20 @@
       <c r="A227" s="2">
         <v>45658</v>
       </c>
-      <c r="B227" s="1">
-        <v>103.34180000000001</v>
-      </c>
-      <c r="C227" s="1">
-        <v>1539183</v>
+      <c r="B227">
+        <v>2.1732447484768091E-3</v>
+      </c>
+      <c r="C227">
+        <v>-9.5185647313749348E-3</v>
       </c>
       <c r="D227" s="1">
         <v>0.04</v>
       </c>
       <c r="E227" s="1">
-        <v>213500</v>
-      </c>
-      <c r="F227" s="1">
-        <v>319.08600000000001</v>
+        <v>222250</v>
+      </c>
+      <c r="F227">
+        <v>4.6693513600312465E-3</v>
       </c>
       <c r="G227">
         <v>100.65</v>
@@ -5631,20 +5651,20 @@
       <c r="A228" s="2">
         <v>45689</v>
       </c>
-      <c r="B228" s="1">
-        <v>104.22020000000001</v>
-      </c>
-      <c r="C228" s="1">
-        <v>1527415</v>
+      <c r="B228">
+        <v>8.4999487138795633E-3</v>
+      </c>
+      <c r="C228">
+        <v>8.6671790292500283E-3</v>
       </c>
       <c r="D228" s="1">
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="E228" s="1">
-        <v>226000</v>
-      </c>
-      <c r="F228" s="1">
-        <v>319.77499999999998</v>
+        <v>215200</v>
+      </c>
+      <c r="F228">
+        <v>2.1592924791434425E-3</v>
       </c>
       <c r="G228">
         <v>100.68</v>
@@ -5654,20 +5674,20 @@
       <c r="A229" s="2">
         <v>45717</v>
       </c>
-      <c r="B229" s="1">
-        <v>103.8892</v>
-      </c>
-      <c r="C229" s="1">
-        <v>1529015</v>
+      <c r="B229">
+        <v>-3.1759678066248485E-3</v>
+      </c>
+      <c r="C229">
+        <v>-1.5917864666349299E-2</v>
       </c>
       <c r="D229" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E229" s="1">
-        <v>223200</v>
-      </c>
-      <c r="F229" s="1">
-        <v>319.61500000000001</v>
+        <v>226500</v>
+      </c>
+      <c r="F229">
+        <v>-5.0035180986621273E-4</v>
       </c>
       <c r="G229">
         <v>100.68</v>
